--- a/media/akm_download_fiz.xlsx
+++ b/media/akm_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407389C3-0B3C-034B-97EB-25C7FD66427C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841BFA0-94B9-5E48-B90B-EB176BFFD2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{DF9E47F1-4587-4E98-94C9-887045700904}"/>
   </bookViews>
@@ -1110,13 +1110,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7BF2C4-235C-4177-AAA8-14AEAF9D0787}">
   <dimension ref="A1:Q529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A312" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="111"/>
+    <col min="3" max="3" width="0" style="111" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -6166,7 +6168,7 @@
       <c r="P263" s="34"/>
       <c r="Q263" s="49"/>
     </row>
-    <row r="264" spans="1:17" s="111" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" s="17"/>
       <c r="B264" s="58"/>
       <c r="C264" s="6"/>

--- a/media/akm_download_fiz.xlsx
+++ b/media/akm_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531CFE8-5E4B-B748-B539-10BC8E3845FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D45599-0E7C-244D-B67C-CC6479C75341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{DF9E47F1-4587-4E98-94C9-887045700904}"/>
   </bookViews>
@@ -143,14 +143,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
@@ -209,6 +201,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -391,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,9 +429,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,10 +483,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,10 +495,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,13 +511,13 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,16 +542,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,16 +563,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,10 +637,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,11 +661,11 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,29 +677,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,11 +695,53 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1107,235 +1131,235 @@
   <dimension ref="A1:Q529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="104"/>
-    <col min="3" max="3" width="0" style="104" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="104"/>
-    <col min="9" max="9" width="8.83203125" style="117"/>
-    <col min="10" max="16384" width="8.83203125" style="104"/>
+    <col min="1" max="2" width="8.83203125" style="103"/>
+    <col min="3" max="3" width="0" style="103" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="103" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="103" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="103"/>
+    <col min="9" max="9" width="8.83203125" style="111"/>
+    <col min="10" max="16384" width="8.83203125" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="76" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="78"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="107" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="78"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="72" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="108" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="71"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="109" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="73"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="72"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="94">
-        <v>31</v>
-      </c>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="112"/>
     </row>
     <row r="9" spans="1:17" ht="84" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="68" t="s">
+      <c r="L9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="68" t="s">
+      <c r="N9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="67" t="s">
+      <c r="O9" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="68" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="4"/>
@@ -1376,7 +1400,7 @@
       <c r="N11" s="17"/>
       <c r="O11" s="24"/>
       <c r="P11" s="48"/>
-      <c r="Q11" s="96"/>
+      <c r="Q11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
@@ -1596,7 +1620,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="99"/>
+      <c r="I23" s="98"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
@@ -1710,7 +1734,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="28"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="99"/>
+      <c r="I29" s="98"/>
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
@@ -1729,7 +1753,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="28"/>
       <c r="H30" s="31"/>
-      <c r="I30" s="99"/>
+      <c r="I30" s="98"/>
       <c r="J30" s="8"/>
       <c r="K30" s="9"/>
       <c r="L30" s="10"/>
@@ -1748,7 +1772,7 @@
       <c r="F31" s="41"/>
       <c r="G31" s="20"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="114"/>
+      <c r="I31" s="108"/>
       <c r="J31" s="23"/>
       <c r="K31" s="42"/>
       <c r="L31" s="17"/>
@@ -1767,7 +1791,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="28"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="99"/>
+      <c r="I32" s="98"/>
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
       <c r="L32" s="10"/>
@@ -1805,7 +1829,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="99"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
@@ -1976,7 +2000,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="99"/>
+      <c r="I43" s="98"/>
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
       <c r="L43" s="10"/>
@@ -1995,7 +2019,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="99"/>
+      <c r="I44" s="98"/>
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
       <c r="L44" s="10"/>
@@ -2014,7 +2038,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="99"/>
+      <c r="I45" s="98"/>
       <c r="J45" s="8"/>
       <c r="K45" s="9"/>
       <c r="L45" s="10"/>
@@ -2033,7 +2057,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="99"/>
+      <c r="I46" s="98"/>
       <c r="J46" s="8"/>
       <c r="K46" s="9"/>
       <c r="L46" s="10"/>
@@ -2052,7 +2076,7 @@
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="16"/>
-      <c r="I47" s="114"/>
+      <c r="I47" s="108"/>
       <c r="J47" s="23"/>
       <c r="K47" s="42"/>
       <c r="L47" s="17"/>
@@ -2060,7 +2084,7 @@
       <c r="N47" s="17"/>
       <c r="O47" s="24"/>
       <c r="P47" s="48"/>
-      <c r="Q47" s="97"/>
+      <c r="Q47" s="96"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -2071,7 +2095,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="99"/>
+      <c r="I48" s="98"/>
       <c r="J48" s="8"/>
       <c r="K48" s="9"/>
       <c r="L48" s="10"/>
@@ -2090,7 +2114,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="99"/>
+      <c r="I49" s="98"/>
       <c r="J49" s="8"/>
       <c r="K49" s="9"/>
       <c r="L49" s="10"/>
@@ -2109,7 +2133,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="99"/>
+      <c r="I50" s="98"/>
       <c r="J50" s="8"/>
       <c r="K50" s="9"/>
       <c r="L50" s="10"/>
@@ -2128,7 +2152,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="99"/>
+      <c r="I51" s="98"/>
       <c r="J51" s="8"/>
       <c r="K51" s="9"/>
       <c r="L51" s="10"/>
@@ -2147,7 +2171,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="99"/>
+      <c r="I52" s="98"/>
       <c r="J52" s="8"/>
       <c r="K52" s="9"/>
       <c r="L52" s="10"/>
@@ -2166,7 +2190,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="99"/>
+      <c r="I53" s="98"/>
       <c r="J53" s="8"/>
       <c r="K53" s="9"/>
       <c r="L53" s="10"/>
@@ -2185,7 +2209,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="99"/>
+      <c r="I54" s="98"/>
       <c r="J54" s="8"/>
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
@@ -2204,7 +2228,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="99"/>
+      <c r="I55" s="98"/>
       <c r="J55" s="8"/>
       <c r="K55" s="9"/>
       <c r="L55" s="10"/>
@@ -2223,7 +2247,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="99"/>
+      <c r="I56" s="98"/>
       <c r="J56" s="8"/>
       <c r="K56" s="9"/>
       <c r="L56" s="10"/>
@@ -2242,7 +2266,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="99"/>
+      <c r="I57" s="98"/>
       <c r="J57" s="8"/>
       <c r="K57" s="9"/>
       <c r="L57" s="10"/>
@@ -2261,7 +2285,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="99"/>
+      <c r="I58" s="98"/>
       <c r="J58" s="8"/>
       <c r="K58" s="9"/>
       <c r="L58" s="10"/>
@@ -2280,7 +2304,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="99"/>
+      <c r="I59" s="98"/>
       <c r="J59" s="8"/>
       <c r="K59" s="9"/>
       <c r="L59" s="10"/>
@@ -2299,7 +2323,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="99"/>
+      <c r="I60" s="98"/>
       <c r="J60" s="8"/>
       <c r="K60" s="9"/>
       <c r="L60" s="10"/>
@@ -2318,7 +2342,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="99"/>
+      <c r="I61" s="98"/>
       <c r="J61" s="8"/>
       <c r="K61" s="9"/>
       <c r="L61" s="10"/>
@@ -2337,7 +2361,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="99"/>
+      <c r="I62" s="98"/>
       <c r="J62" s="8"/>
       <c r="K62" s="9"/>
       <c r="L62" s="10"/>
@@ -2356,7 +2380,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="99"/>
+      <c r="I63" s="98"/>
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
       <c r="L63" s="10"/>
@@ -2425,7 +2449,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="50"/>
-      <c r="B67" s="100"/>
+      <c r="B67" s="99"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -2444,7 +2468,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="100"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2463,7 +2487,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="100"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2482,7 +2506,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="100"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2501,7 +2525,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="100"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -2520,7 +2544,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="100"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -2539,7 +2563,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="100"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -2558,7 +2582,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="100"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -2995,7 +3019,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>
-      <c r="B97" s="101"/>
+      <c r="B97" s="100"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
@@ -3306,7 +3330,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="23"/>
-      <c r="I113" s="114"/>
+      <c r="I113" s="108"/>
       <c r="J113" s="23"/>
       <c r="K113" s="9"/>
       <c r="L113" s="17"/>
@@ -3325,7 +3349,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="8"/>
-      <c r="I114" s="99"/>
+      <c r="I114" s="98"/>
       <c r="J114" s="8"/>
       <c r="K114" s="9"/>
       <c r="L114" s="10"/>
@@ -3344,7 +3368,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="8"/>
-      <c r="I115" s="99"/>
+      <c r="I115" s="98"/>
       <c r="J115" s="8"/>
       <c r="K115" s="9"/>
       <c r="L115" s="10"/>
@@ -3363,7 +3387,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="99"/>
+      <c r="I116" s="98"/>
       <c r="J116" s="8"/>
       <c r="K116" s="9"/>
       <c r="L116" s="10"/>
@@ -3382,7 +3406,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="99"/>
+      <c r="I117" s="98"/>
       <c r="J117" s="8"/>
       <c r="K117" s="9"/>
       <c r="L117" s="10"/>
@@ -3401,7 +3425,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="99"/>
+      <c r="I118" s="98"/>
       <c r="J118" s="8"/>
       <c r="K118" s="9"/>
       <c r="L118" s="10"/>
@@ -3420,7 +3444,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
-      <c r="I119" s="114"/>
+      <c r="I119" s="108"/>
       <c r="J119" s="23"/>
       <c r="K119" s="42"/>
       <c r="L119" s="17"/>
@@ -3439,7 +3463,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="99"/>
+      <c r="I120" s="98"/>
       <c r="J120" s="8"/>
       <c r="K120" s="9"/>
       <c r="L120" s="10"/>
@@ -3458,7 +3482,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="99"/>
+      <c r="I121" s="98"/>
       <c r="J121" s="8"/>
       <c r="K121" s="9"/>
       <c r="L121" s="10"/>
@@ -3477,7 +3501,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
-      <c r="I122" s="99"/>
+      <c r="I122" s="98"/>
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
       <c r="L122" s="10"/>
@@ -3496,7 +3520,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
-      <c r="I123" s="99"/>
+      <c r="I123" s="98"/>
       <c r="J123" s="8"/>
       <c r="K123" s="9"/>
       <c r="L123" s="10"/>
@@ -3515,7 +3539,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
-      <c r="I124" s="99"/>
+      <c r="I124" s="98"/>
       <c r="J124" s="8"/>
       <c r="K124" s="9"/>
       <c r="L124" s="10"/>
@@ -3534,7 +3558,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="30"/>
       <c r="H125" s="31"/>
-      <c r="I125" s="99"/>
+      <c r="I125" s="98"/>
       <c r="J125" s="8"/>
       <c r="K125" s="9"/>
       <c r="L125" s="10"/>
@@ -3553,7 +3577,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="5"/>
       <c r="H126" s="31"/>
-      <c r="I126" s="99"/>
+      <c r="I126" s="98"/>
       <c r="J126" s="8"/>
       <c r="K126" s="9"/>
       <c r="L126" s="10"/>
@@ -3572,7 +3596,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="99"/>
+      <c r="I127" s="98"/>
       <c r="J127" s="8"/>
       <c r="K127" s="9"/>
       <c r="L127" s="10"/>
@@ -3591,7 +3615,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="5"/>
       <c r="H128" s="31"/>
-      <c r="I128" s="99"/>
+      <c r="I128" s="98"/>
       <c r="J128" s="8"/>
       <c r="K128" s="9"/>
       <c r="L128" s="10"/>
@@ -3610,7 +3634,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="30"/>
       <c r="H129" s="31"/>
-      <c r="I129" s="99"/>
+      <c r="I129" s="98"/>
       <c r="J129" s="8"/>
       <c r="K129" s="9"/>
       <c r="L129" s="10"/>
@@ -3629,7 +3653,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="5"/>
       <c r="H130" s="31"/>
-      <c r="I130" s="99"/>
+      <c r="I130" s="98"/>
       <c r="J130" s="8"/>
       <c r="K130" s="9"/>
       <c r="L130" s="10"/>
@@ -3648,7 +3672,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="5"/>
       <c r="H131" s="31"/>
-      <c r="I131" s="99"/>
+      <c r="I131" s="98"/>
       <c r="J131" s="8"/>
       <c r="K131" s="9"/>
       <c r="L131" s="10"/>
@@ -3667,7 +3691,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="5"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="99"/>
+      <c r="I132" s="98"/>
       <c r="J132" s="8"/>
       <c r="K132" s="9"/>
       <c r="L132" s="10"/>
@@ -3686,7 +3710,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="5"/>
       <c r="H133" s="31"/>
-      <c r="I133" s="99"/>
+      <c r="I133" s="98"/>
       <c r="J133" s="8"/>
       <c r="K133" s="9"/>
       <c r="L133" s="10"/>
@@ -3705,7 +3729,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="5"/>
       <c r="H134" s="31"/>
-      <c r="I134" s="99"/>
+      <c r="I134" s="98"/>
       <c r="J134" s="8"/>
       <c r="K134" s="9"/>
       <c r="L134" s="10"/>
@@ -3724,7 +3748,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="5"/>
       <c r="H135" s="31"/>
-      <c r="I135" s="99"/>
+      <c r="I135" s="98"/>
       <c r="J135" s="8"/>
       <c r="K135" s="9"/>
       <c r="L135" s="10"/>
@@ -3743,7 +3767,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="5"/>
       <c r="H136" s="31"/>
-      <c r="I136" s="99"/>
+      <c r="I136" s="98"/>
       <c r="J136" s="8"/>
       <c r="K136" s="9"/>
       <c r="L136" s="10"/>
@@ -3762,7 +3786,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="5"/>
       <c r="H137" s="31"/>
-      <c r="I137" s="99"/>
+      <c r="I137" s="98"/>
       <c r="J137" s="8"/>
       <c r="K137" s="9"/>
       <c r="L137" s="10"/>
@@ -3781,7 +3805,7 @@
       <c r="F138" s="29"/>
       <c r="G138" s="52"/>
       <c r="H138" s="31"/>
-      <c r="I138" s="99"/>
+      <c r="I138" s="98"/>
       <c r="J138" s="8"/>
       <c r="K138" s="9"/>
       <c r="L138" s="10"/>
@@ -3800,7 +3824,7 @@
       <c r="F139" s="29"/>
       <c r="G139" s="5"/>
       <c r="H139" s="31"/>
-      <c r="I139" s="99"/>
+      <c r="I139" s="98"/>
       <c r="J139" s="8"/>
       <c r="K139" s="9"/>
       <c r="L139" s="10"/>
@@ -3819,7 +3843,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="5"/>
       <c r="H140" s="31"/>
-      <c r="I140" s="99"/>
+      <c r="I140" s="98"/>
       <c r="J140" s="8"/>
       <c r="K140" s="9"/>
       <c r="L140" s="10"/>
@@ -3831,14 +3855,14 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="51"/>
-      <c r="B141" s="101"/>
+      <c r="B141" s="100"/>
       <c r="C141" s="52"/>
       <c r="D141" s="52"/>
       <c r="E141" s="52"/>
       <c r="F141" s="41"/>
       <c r="G141" s="16"/>
       <c r="H141" s="53"/>
-      <c r="I141" s="114"/>
+      <c r="I141" s="108"/>
       <c r="J141" s="23"/>
       <c r="K141" s="42"/>
       <c r="L141" s="17"/>
@@ -3857,7 +3881,7 @@
       <c r="F142" s="29"/>
       <c r="G142" s="5"/>
       <c r="H142" s="31"/>
-      <c r="I142" s="99"/>
+      <c r="I142" s="98"/>
       <c r="J142" s="8"/>
       <c r="K142" s="9"/>
       <c r="L142" s="10"/>
@@ -3876,7 +3900,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="5"/>
       <c r="H143" s="31"/>
-      <c r="I143" s="99"/>
+      <c r="I143" s="98"/>
       <c r="J143" s="8"/>
       <c r="K143" s="9"/>
       <c r="L143" s="10"/>
@@ -3888,14 +3912,14 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="51"/>
-      <c r="B144" s="101"/>
+      <c r="B144" s="100"/>
       <c r="C144" s="52"/>
       <c r="D144" s="52"/>
       <c r="E144" s="52"/>
       <c r="F144" s="41"/>
       <c r="G144" s="16"/>
       <c r="H144" s="53"/>
-      <c r="I144" s="114"/>
+      <c r="I144" s="108"/>
       <c r="J144" s="23"/>
       <c r="K144" s="9"/>
       <c r="L144" s="17"/>
@@ -3914,7 +3938,7 @@
       <c r="F145" s="29"/>
       <c r="G145" s="5"/>
       <c r="H145" s="31"/>
-      <c r="I145" s="99"/>
+      <c r="I145" s="98"/>
       <c r="J145" s="8"/>
       <c r="K145" s="9"/>
       <c r="L145" s="10"/>
@@ -3933,7 +3957,7 @@
       <c r="F146" s="29"/>
       <c r="G146" s="20"/>
       <c r="H146" s="31"/>
-      <c r="I146" s="99"/>
+      <c r="I146" s="98"/>
       <c r="J146" s="8"/>
       <c r="K146" s="9"/>
       <c r="L146" s="10"/>
@@ -3952,7 +3976,7 @@
       <c r="F147" s="29"/>
       <c r="G147" s="5"/>
       <c r="H147" s="31"/>
-      <c r="I147" s="99"/>
+      <c r="I147" s="98"/>
       <c r="J147" s="8"/>
       <c r="K147" s="9"/>
       <c r="L147" s="10"/>
@@ -3971,7 +3995,7 @@
       <c r="F148" s="29"/>
       <c r="G148" s="5"/>
       <c r="H148" s="31"/>
-      <c r="I148" s="99"/>
+      <c r="I148" s="98"/>
       <c r="J148" s="8"/>
       <c r="K148" s="9"/>
       <c r="L148" s="10"/>
@@ -3990,7 +4014,7 @@
       <c r="F149" s="29"/>
       <c r="G149" s="5"/>
       <c r="H149" s="31"/>
-      <c r="I149" s="99"/>
+      <c r="I149" s="98"/>
       <c r="J149" s="8"/>
       <c r="K149" s="9"/>
       <c r="L149" s="10"/>
@@ -4009,7 +4033,7 @@
       <c r="F150" s="29"/>
       <c r="G150" s="5"/>
       <c r="H150" s="31"/>
-      <c r="I150" s="99"/>
+      <c r="I150" s="98"/>
       <c r="J150" s="8"/>
       <c r="K150" s="9"/>
       <c r="L150" s="10"/>
@@ -4028,7 +4052,7 @@
       <c r="F151" s="29"/>
       <c r="G151" s="5"/>
       <c r="H151" s="31"/>
-      <c r="I151" s="99"/>
+      <c r="I151" s="98"/>
       <c r="J151" s="8"/>
       <c r="K151" s="9"/>
       <c r="L151" s="10"/>
@@ -4047,7 +4071,7 @@
       <c r="F152" s="29"/>
       <c r="G152" s="5"/>
       <c r="H152" s="31"/>
-      <c r="I152" s="99"/>
+      <c r="I152" s="98"/>
       <c r="J152" s="8"/>
       <c r="K152" s="9"/>
       <c r="L152" s="10"/>
@@ -4066,7 +4090,7 @@
       <c r="F153" s="29"/>
       <c r="G153" s="5"/>
       <c r="H153" s="31"/>
-      <c r="I153" s="99"/>
+      <c r="I153" s="98"/>
       <c r="J153" s="8"/>
       <c r="K153" s="9"/>
       <c r="L153" s="10"/>
@@ -4085,7 +4109,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="5"/>
       <c r="H154" s="8"/>
-      <c r="I154" s="99"/>
+      <c r="I154" s="98"/>
       <c r="J154" s="8"/>
       <c r="K154" s="9"/>
       <c r="L154" s="10"/>
@@ -4104,7 +4128,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="5"/>
       <c r="H155" s="8"/>
-      <c r="I155" s="99"/>
+      <c r="I155" s="98"/>
       <c r="J155" s="8"/>
       <c r="K155" s="9"/>
       <c r="L155" s="10"/>
@@ -4123,7 +4147,7 @@
       <c r="F156" s="28"/>
       <c r="G156" s="5"/>
       <c r="H156" s="8"/>
-      <c r="I156" s="99"/>
+      <c r="I156" s="98"/>
       <c r="J156" s="8"/>
       <c r="K156" s="9"/>
       <c r="L156" s="10"/>
@@ -4142,7 +4166,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="5"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="99"/>
+      <c r="I157" s="98"/>
       <c r="J157" s="8"/>
       <c r="K157" s="9"/>
       <c r="L157" s="10"/>
@@ -4161,7 +4185,7 @@
       <c r="F158" s="28"/>
       <c r="G158" s="5"/>
       <c r="H158" s="8"/>
-      <c r="I158" s="99"/>
+      <c r="I158" s="98"/>
       <c r="J158" s="8"/>
       <c r="K158" s="9"/>
       <c r="L158" s="10"/>
@@ -4180,7 +4204,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="5"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="99"/>
+      <c r="I159" s="98"/>
       <c r="J159" s="8"/>
       <c r="K159" s="9"/>
       <c r="L159" s="10"/>
@@ -4199,7 +4223,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="99"/>
+      <c r="I160" s="98"/>
       <c r="J160" s="8"/>
       <c r="K160" s="9"/>
       <c r="L160" s="10"/>
@@ -4218,7 +4242,7 @@
       <c r="F161" s="28"/>
       <c r="G161" s="30"/>
       <c r="H161" s="8"/>
-      <c r="I161" s="99"/>
+      <c r="I161" s="98"/>
       <c r="J161" s="8"/>
       <c r="K161" s="9"/>
       <c r="L161" s="10"/>
@@ -4237,7 +4261,7 @@
       <c r="F162" s="30"/>
       <c r="G162" s="52"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="99"/>
+      <c r="I162" s="98"/>
       <c r="J162" s="8"/>
       <c r="K162" s="9"/>
       <c r="L162" s="10"/>
@@ -4256,7 +4280,7 @@
       <c r="F163" s="30"/>
       <c r="G163" s="28"/>
       <c r="H163" s="8"/>
-      <c r="I163" s="99"/>
+      <c r="I163" s="98"/>
       <c r="J163" s="8"/>
       <c r="K163" s="9"/>
       <c r="L163" s="10"/>
@@ -4275,7 +4299,7 @@
       <c r="F164" s="30"/>
       <c r="G164" s="28"/>
       <c r="H164" s="31"/>
-      <c r="I164" s="99"/>
+      <c r="I164" s="98"/>
       <c r="J164" s="8"/>
       <c r="K164" s="9"/>
       <c r="L164" s="10"/>
@@ -4294,7 +4318,7 @@
       <c r="F165" s="30"/>
       <c r="G165" s="28"/>
       <c r="H165" s="31"/>
-      <c r="I165" s="99"/>
+      <c r="I165" s="98"/>
       <c r="J165" s="8"/>
       <c r="K165" s="9"/>
       <c r="L165" s="10"/>
@@ -4313,7 +4337,7 @@
       <c r="F166" s="30"/>
       <c r="G166" s="28"/>
       <c r="H166" s="31"/>
-      <c r="I166" s="99"/>
+      <c r="I166" s="98"/>
       <c r="J166" s="8"/>
       <c r="K166" s="9"/>
       <c r="L166" s="10"/>
@@ -4332,7 +4356,7 @@
       <c r="F167" s="30"/>
       <c r="G167" s="28"/>
       <c r="H167" s="31"/>
-      <c r="I167" s="99"/>
+      <c r="I167" s="98"/>
       <c r="J167" s="8"/>
       <c r="K167" s="9"/>
       <c r="L167" s="10"/>
@@ -4351,7 +4375,7 @@
       <c r="F168" s="30"/>
       <c r="G168" s="28"/>
       <c r="H168" s="31"/>
-      <c r="I168" s="99"/>
+      <c r="I168" s="98"/>
       <c r="J168" s="8"/>
       <c r="K168" s="9"/>
       <c r="L168" s="10"/>
@@ -4370,7 +4394,7 @@
       <c r="F169" s="30"/>
       <c r="G169" s="28"/>
       <c r="H169" s="31"/>
-      <c r="I169" s="99"/>
+      <c r="I169" s="98"/>
       <c r="J169" s="8"/>
       <c r="K169" s="9"/>
       <c r="L169" s="10"/>
@@ -4389,7 +4413,7 @@
       <c r="F170" s="30"/>
       <c r="G170" s="28"/>
       <c r="H170" s="31"/>
-      <c r="I170" s="99"/>
+      <c r="I170" s="98"/>
       <c r="J170" s="8"/>
       <c r="K170" s="9"/>
       <c r="L170" s="10"/>
@@ -4408,7 +4432,7 @@
       <c r="F171" s="30"/>
       <c r="G171" s="28"/>
       <c r="H171" s="31"/>
-      <c r="I171" s="99"/>
+      <c r="I171" s="98"/>
       <c r="J171" s="8"/>
       <c r="K171" s="9"/>
       <c r="L171" s="10"/>
@@ -4427,7 +4451,7 @@
       <c r="F172" s="30"/>
       <c r="G172" s="28"/>
       <c r="H172" s="31"/>
-      <c r="I172" s="99"/>
+      <c r="I172" s="98"/>
       <c r="J172" s="8"/>
       <c r="K172" s="9"/>
       <c r="L172" s="10"/>
@@ -4446,7 +4470,7 @@
       <c r="F173" s="30"/>
       <c r="G173" s="28"/>
       <c r="H173" s="31"/>
-      <c r="I173" s="99"/>
+      <c r="I173" s="98"/>
       <c r="J173" s="8"/>
       <c r="K173" s="9"/>
       <c r="L173" s="10"/>
@@ -4465,7 +4489,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="28"/>
       <c r="H174" s="31"/>
-      <c r="I174" s="99"/>
+      <c r="I174" s="98"/>
       <c r="J174" s="8"/>
       <c r="K174" s="9"/>
       <c r="L174" s="10"/>
@@ -4484,7 +4508,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="28"/>
       <c r="H175" s="31"/>
-      <c r="I175" s="99"/>
+      <c r="I175" s="98"/>
       <c r="J175" s="8"/>
       <c r="K175" s="9"/>
       <c r="L175" s="10"/>
@@ -4503,7 +4527,7 @@
       <c r="F176" s="30"/>
       <c r="G176" s="28"/>
       <c r="H176" s="31"/>
-      <c r="I176" s="99"/>
+      <c r="I176" s="98"/>
       <c r="J176" s="8"/>
       <c r="K176" s="9"/>
       <c r="L176" s="10"/>
@@ -4522,7 +4546,7 @@
       <c r="F177" s="30"/>
       <c r="G177" s="28"/>
       <c r="H177" s="31"/>
-      <c r="I177" s="99"/>
+      <c r="I177" s="98"/>
       <c r="J177" s="8"/>
       <c r="K177" s="9"/>
       <c r="L177" s="10"/>
@@ -4541,7 +4565,7 @@
       <c r="F178" s="30"/>
       <c r="G178" s="28"/>
       <c r="H178" s="31"/>
-      <c r="I178" s="99"/>
+      <c r="I178" s="98"/>
       <c r="J178" s="8"/>
       <c r="K178" s="9"/>
       <c r="L178" s="10"/>
@@ -4560,7 +4584,7 @@
       <c r="F179" s="30"/>
       <c r="G179" s="28"/>
       <c r="H179" s="31"/>
-      <c r="I179" s="99"/>
+      <c r="I179" s="98"/>
       <c r="J179" s="8"/>
       <c r="K179" s="9"/>
       <c r="L179" s="10"/>
@@ -4579,7 +4603,7 @@
       <c r="F180" s="30"/>
       <c r="G180" s="28"/>
       <c r="H180" s="31"/>
-      <c r="I180" s="99"/>
+      <c r="I180" s="98"/>
       <c r="J180" s="8"/>
       <c r="K180" s="9"/>
       <c r="L180" s="10"/>
@@ -4598,7 +4622,7 @@
       <c r="F181" s="30"/>
       <c r="G181" s="28"/>
       <c r="H181" s="31"/>
-      <c r="I181" s="99"/>
+      <c r="I181" s="98"/>
       <c r="J181" s="8"/>
       <c r="K181" s="9"/>
       <c r="L181" s="10"/>
@@ -4617,7 +4641,7 @@
       <c r="F182" s="30"/>
       <c r="G182" s="28"/>
       <c r="H182" s="31"/>
-      <c r="I182" s="99"/>
+      <c r="I182" s="98"/>
       <c r="J182" s="8"/>
       <c r="K182" s="9"/>
       <c r="L182" s="10"/>
@@ -4636,7 +4660,7 @@
       <c r="F183" s="30"/>
       <c r="G183" s="28"/>
       <c r="H183" s="31"/>
-      <c r="I183" s="99"/>
+      <c r="I183" s="98"/>
       <c r="J183" s="8"/>
       <c r="K183" s="9"/>
       <c r="L183" s="10"/>
@@ -4655,7 +4679,7 @@
       <c r="F184" s="7"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
-      <c r="I184" s="99"/>
+      <c r="I184" s="98"/>
       <c r="J184" s="8"/>
       <c r="K184" s="9"/>
       <c r="L184" s="10"/>
@@ -4674,7 +4698,7 @@
       <c r="F185" s="30"/>
       <c r="G185" s="28"/>
       <c r="H185" s="5"/>
-      <c r="I185" s="99"/>
+      <c r="I185" s="98"/>
       <c r="J185" s="8"/>
       <c r="K185" s="9"/>
       <c r="L185" s="10"/>
@@ -4693,7 +4717,7 @@
       <c r="F186" s="30"/>
       <c r="G186" s="28"/>
       <c r="H186" s="31"/>
-      <c r="I186" s="99"/>
+      <c r="I186" s="98"/>
       <c r="J186" s="8"/>
       <c r="K186" s="9"/>
       <c r="L186" s="10"/>
@@ -4707,12 +4731,12 @@
       <c r="A187" s="51"/>
       <c r="B187" s="55"/>
       <c r="C187" s="28"/>
-      <c r="D187" s="102"/>
-      <c r="E187" s="102"/>
+      <c r="D187" s="101"/>
+      <c r="E187" s="101"/>
       <c r="F187" s="28"/>
       <c r="G187" s="30"/>
       <c r="H187" s="30"/>
-      <c r="I187" s="99"/>
+      <c r="I187" s="98"/>
       <c r="J187" s="8"/>
       <c r="K187" s="9"/>
       <c r="L187" s="10"/>
@@ -4731,7 +4755,7 @@
       <c r="F188" s="30"/>
       <c r="G188" s="28"/>
       <c r="H188" s="31"/>
-      <c r="I188" s="99"/>
+      <c r="I188" s="98"/>
       <c r="J188" s="8"/>
       <c r="K188" s="9"/>
       <c r="L188" s="10"/>
@@ -4750,7 +4774,7 @@
       <c r="F189" s="59"/>
       <c r="G189" s="52"/>
       <c r="H189" s="16"/>
-      <c r="I189" s="114"/>
+      <c r="I189" s="108"/>
       <c r="J189" s="23"/>
       <c r="K189" s="42"/>
       <c r="L189" s="17"/>
@@ -4769,7 +4793,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="28"/>
       <c r="H190" s="5"/>
-      <c r="I190" s="99"/>
+      <c r="I190" s="98"/>
       <c r="J190" s="8"/>
       <c r="K190" s="9"/>
       <c r="L190" s="10"/>
@@ -4788,7 +4812,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="28"/>
       <c r="H191" s="5"/>
-      <c r="I191" s="99"/>
+      <c r="I191" s="98"/>
       <c r="J191" s="8"/>
       <c r="K191" s="9"/>
       <c r="L191" s="10"/>
@@ -4807,7 +4831,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="28"/>
       <c r="H192" s="5"/>
-      <c r="I192" s="99"/>
+      <c r="I192" s="98"/>
       <c r="J192" s="8"/>
       <c r="K192" s="9"/>
       <c r="L192" s="10"/>
@@ -4826,7 +4850,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="28"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="99"/>
+      <c r="I193" s="98"/>
       <c r="J193" s="8"/>
       <c r="K193" s="9"/>
       <c r="L193" s="10"/>
@@ -4845,7 +4869,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="28"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="99"/>
+      <c r="I194" s="98"/>
       <c r="J194" s="8"/>
       <c r="K194" s="9"/>
       <c r="L194" s="10"/>
@@ -4864,7 +4888,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="28"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="99"/>
+      <c r="I195" s="98"/>
       <c r="J195" s="8"/>
       <c r="K195" s="9"/>
       <c r="L195" s="10"/>
@@ -4883,7 +4907,7 @@
       <c r="F196" s="30"/>
       <c r="G196" s="28"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="99"/>
+      <c r="I196" s="98"/>
       <c r="J196" s="8"/>
       <c r="K196" s="9"/>
       <c r="L196" s="10"/>
@@ -4902,7 +4926,7 @@
       <c r="F197" s="30"/>
       <c r="G197" s="28"/>
       <c r="H197" s="5"/>
-      <c r="I197" s="99"/>
+      <c r="I197" s="98"/>
       <c r="J197" s="8"/>
       <c r="K197" s="9"/>
       <c r="L197" s="10"/>
@@ -4921,7 +4945,7 @@
       <c r="F198" s="30"/>
       <c r="G198" s="28"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="99"/>
+      <c r="I198" s="98"/>
       <c r="J198" s="8"/>
       <c r="K198" s="9"/>
       <c r="L198" s="10"/>
@@ -4940,7 +4964,7 @@
       <c r="F199" s="30"/>
       <c r="G199" s="28"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="99"/>
+      <c r="I199" s="98"/>
       <c r="J199" s="8"/>
       <c r="K199" s="9"/>
       <c r="L199" s="10"/>
@@ -4959,7 +4983,7 @@
       <c r="F200" s="30"/>
       <c r="G200" s="28"/>
       <c r="H200" s="30"/>
-      <c r="I200" s="99"/>
+      <c r="I200" s="98"/>
       <c r="J200" s="8"/>
       <c r="K200" s="9"/>
       <c r="L200" s="10"/>
@@ -4978,7 +5002,7 @@
       <c r="F201" s="30"/>
       <c r="G201" s="28"/>
       <c r="H201" s="30"/>
-      <c r="I201" s="99"/>
+      <c r="I201" s="98"/>
       <c r="J201" s="8"/>
       <c r="K201" s="9"/>
       <c r="L201" s="10"/>
@@ -4997,7 +5021,7 @@
       <c r="F202" s="28"/>
       <c r="G202" s="28"/>
       <c r="H202" s="30"/>
-      <c r="I202" s="99"/>
+      <c r="I202" s="98"/>
       <c r="J202" s="8"/>
       <c r="K202" s="9"/>
       <c r="L202" s="10"/>
@@ -5016,7 +5040,7 @@
       <c r="F203" s="28"/>
       <c r="G203" s="28"/>
       <c r="H203" s="30"/>
-      <c r="I203" s="99"/>
+      <c r="I203" s="98"/>
       <c r="J203" s="8"/>
       <c r="K203" s="9"/>
       <c r="L203" s="10"/>
@@ -5035,7 +5059,7 @@
       <c r="F204" s="28"/>
       <c r="G204" s="28"/>
       <c r="H204" s="30"/>
-      <c r="I204" s="99"/>
+      <c r="I204" s="98"/>
       <c r="J204" s="8"/>
       <c r="K204" s="9"/>
       <c r="L204" s="10"/>
@@ -5054,7 +5078,7 @@
       <c r="F205" s="28"/>
       <c r="G205" s="28"/>
       <c r="H205" s="30"/>
-      <c r="I205" s="99"/>
+      <c r="I205" s="98"/>
       <c r="J205" s="8"/>
       <c r="K205" s="9"/>
       <c r="L205" s="10"/>
@@ -5073,7 +5097,7 @@
       <c r="F206" s="28"/>
       <c r="G206" s="28"/>
       <c r="H206" s="30"/>
-      <c r="I206" s="99"/>
+      <c r="I206" s="98"/>
       <c r="J206" s="8"/>
       <c r="K206" s="9"/>
       <c r="L206" s="10"/>
@@ -5092,7 +5116,7 @@
       <c r="F207" s="28"/>
       <c r="G207" s="28"/>
       <c r="H207" s="30"/>
-      <c r="I207" s="99"/>
+      <c r="I207" s="98"/>
       <c r="J207" s="8"/>
       <c r="K207" s="9"/>
       <c r="L207" s="10"/>
@@ -5111,7 +5135,7 @@
       <c r="F208" s="28"/>
       <c r="G208" s="28"/>
       <c r="H208" s="30"/>
-      <c r="I208" s="99"/>
+      <c r="I208" s="98"/>
       <c r="J208" s="8"/>
       <c r="K208" s="9"/>
       <c r="L208" s="10"/>
@@ -5130,7 +5154,7 @@
       <c r="F209" s="28"/>
       <c r="G209" s="28"/>
       <c r="H209" s="30"/>
-      <c r="I209" s="99"/>
+      <c r="I209" s="98"/>
       <c r="J209" s="8"/>
       <c r="K209" s="9"/>
       <c r="L209" s="10"/>
@@ -5149,7 +5173,7 @@
       <c r="F210" s="28"/>
       <c r="G210" s="28"/>
       <c r="H210" s="30"/>
-      <c r="I210" s="99"/>
+      <c r="I210" s="98"/>
       <c r="J210" s="8"/>
       <c r="K210" s="9"/>
       <c r="L210" s="10"/>
@@ -5168,7 +5192,7 @@
       <c r="F211" s="28"/>
       <c r="G211" s="28"/>
       <c r="H211" s="30"/>
-      <c r="I211" s="99"/>
+      <c r="I211" s="98"/>
       <c r="J211" s="8"/>
       <c r="K211" s="9"/>
       <c r="L211" s="10"/>
@@ -5187,7 +5211,7 @@
       <c r="F212" s="28"/>
       <c r="G212" s="28"/>
       <c r="H212" s="30"/>
-      <c r="I212" s="99"/>
+      <c r="I212" s="98"/>
       <c r="J212" s="8"/>
       <c r="K212" s="9"/>
       <c r="L212" s="10"/>
@@ -5206,7 +5230,7 @@
       <c r="F213" s="28"/>
       <c r="G213" s="28"/>
       <c r="H213" s="30"/>
-      <c r="I213" s="99"/>
+      <c r="I213" s="98"/>
       <c r="J213" s="8"/>
       <c r="K213" s="9"/>
       <c r="L213" s="10"/>
@@ -5225,7 +5249,7 @@
       <c r="F214" s="28"/>
       <c r="G214" s="28"/>
       <c r="H214" s="30"/>
-      <c r="I214" s="99"/>
+      <c r="I214" s="98"/>
       <c r="J214" s="8"/>
       <c r="K214" s="9"/>
       <c r="L214" s="10"/>
@@ -5244,7 +5268,7 @@
       <c r="F215" s="28"/>
       <c r="G215" s="28"/>
       <c r="H215" s="30"/>
-      <c r="I215" s="99"/>
+      <c r="I215" s="98"/>
       <c r="J215" s="8"/>
       <c r="K215" s="9"/>
       <c r="L215" s="10"/>
@@ -5263,7 +5287,7 @@
       <c r="F216" s="28"/>
       <c r="G216" s="28"/>
       <c r="H216" s="30"/>
-      <c r="I216" s="99"/>
+      <c r="I216" s="98"/>
       <c r="J216" s="8"/>
       <c r="K216" s="9"/>
       <c r="L216" s="10"/>
@@ -5282,7 +5306,7 @@
       <c r="F217" s="28"/>
       <c r="G217" s="28"/>
       <c r="H217" s="30"/>
-      <c r="I217" s="99"/>
+      <c r="I217" s="98"/>
       <c r="J217" s="8"/>
       <c r="K217" s="9"/>
       <c r="L217" s="10"/>
@@ -5301,7 +5325,7 @@
       <c r="F218" s="28"/>
       <c r="G218" s="28"/>
       <c r="H218" s="30"/>
-      <c r="I218" s="99"/>
+      <c r="I218" s="98"/>
       <c r="J218" s="8"/>
       <c r="K218" s="9"/>
       <c r="L218" s="10"/>
@@ -5320,7 +5344,7 @@
       <c r="F219" s="28"/>
       <c r="G219" s="28"/>
       <c r="H219" s="30"/>
-      <c r="I219" s="99"/>
+      <c r="I219" s="98"/>
       <c r="J219" s="8"/>
       <c r="K219" s="9"/>
       <c r="L219" s="10"/>
@@ -5339,7 +5363,7 @@
       <c r="F220" s="28"/>
       <c r="G220" s="28"/>
       <c r="H220" s="30"/>
-      <c r="I220" s="99"/>
+      <c r="I220" s="98"/>
       <c r="J220" s="8"/>
       <c r="K220" s="9"/>
       <c r="L220" s="10"/>
@@ -5358,7 +5382,7 @@
       <c r="F221" s="28"/>
       <c r="G221" s="28"/>
       <c r="H221" s="30"/>
-      <c r="I221" s="99"/>
+      <c r="I221" s="98"/>
       <c r="J221" s="8"/>
       <c r="K221" s="9"/>
       <c r="L221" s="10"/>
@@ -5377,7 +5401,7 @@
       <c r="F222" s="28"/>
       <c r="G222" s="28"/>
       <c r="H222" s="30"/>
-      <c r="I222" s="99"/>
+      <c r="I222" s="98"/>
       <c r="J222" s="8"/>
       <c r="K222" s="9"/>
       <c r="L222" s="10"/>
@@ -5389,14 +5413,14 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="51"/>
-      <c r="B223" s="101"/>
+      <c r="B223" s="100"/>
       <c r="C223" s="52"/>
       <c r="D223" s="52"/>
       <c r="E223" s="52"/>
       <c r="F223" s="52"/>
       <c r="G223" s="16"/>
       <c r="H223" s="53"/>
-      <c r="I223" s="114"/>
+      <c r="I223" s="108"/>
       <c r="J223" s="8"/>
       <c r="K223" s="9"/>
       <c r="L223" s="17"/>
@@ -5408,14 +5432,14 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="51"/>
-      <c r="B224" s="101"/>
+      <c r="B224" s="100"/>
       <c r="C224" s="52"/>
       <c r="D224" s="52"/>
       <c r="E224" s="52"/>
       <c r="F224" s="52"/>
       <c r="G224" s="20"/>
       <c r="H224" s="53"/>
-      <c r="I224" s="114"/>
+      <c r="I224" s="108"/>
       <c r="J224" s="23"/>
       <c r="K224" s="9"/>
       <c r="L224" s="17"/>
@@ -5427,14 +5451,14 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="51"/>
-      <c r="B225" s="101"/>
+      <c r="B225" s="100"/>
       <c r="C225" s="52"/>
       <c r="D225" s="52"/>
       <c r="E225" s="52"/>
       <c r="F225" s="52"/>
       <c r="G225" s="59"/>
       <c r="H225" s="53"/>
-      <c r="I225" s="114"/>
+      <c r="I225" s="108"/>
       <c r="J225" s="23"/>
       <c r="K225" s="9"/>
       <c r="L225" s="17"/>
@@ -5446,14 +5470,14 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="51"/>
-      <c r="B226" s="101"/>
+      <c r="B226" s="100"/>
       <c r="C226" s="52"/>
       <c r="D226" s="52"/>
       <c r="E226" s="52"/>
       <c r="F226" s="52"/>
       <c r="G226" s="59"/>
       <c r="H226" s="53"/>
-      <c r="I226" s="114"/>
+      <c r="I226" s="108"/>
       <c r="J226" s="23"/>
       <c r="K226" s="9"/>
       <c r="L226" s="17"/>
@@ -5465,14 +5489,14 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="51"/>
-      <c r="B227" s="101"/>
+      <c r="B227" s="100"/>
       <c r="C227" s="52"/>
       <c r="D227" s="52"/>
       <c r="E227" s="52"/>
       <c r="F227" s="52"/>
       <c r="G227" s="59"/>
       <c r="H227" s="53"/>
-      <c r="I227" s="114"/>
+      <c r="I227" s="108"/>
       <c r="J227" s="23"/>
       <c r="K227" s="9"/>
       <c r="L227" s="17"/>
@@ -5484,14 +5508,14 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="51"/>
-      <c r="B228" s="101"/>
+      <c r="B228" s="100"/>
       <c r="C228" s="52"/>
       <c r="D228" s="52"/>
       <c r="E228" s="52"/>
       <c r="F228" s="52"/>
       <c r="G228" s="59"/>
       <c r="H228" s="53"/>
-      <c r="I228" s="114"/>
+      <c r="I228" s="108"/>
       <c r="J228" s="23"/>
       <c r="K228" s="9"/>
       <c r="L228" s="17"/>
@@ -5503,14 +5527,14 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="51"/>
-      <c r="B229" s="101"/>
+      <c r="B229" s="100"/>
       <c r="C229" s="52"/>
       <c r="D229" s="52"/>
       <c r="E229" s="52"/>
       <c r="F229" s="52"/>
       <c r="G229" s="59"/>
       <c r="H229" s="53"/>
-      <c r="I229" s="114"/>
+      <c r="I229" s="108"/>
       <c r="J229" s="23"/>
       <c r="K229" s="9"/>
       <c r="L229" s="17"/>
@@ -5567,7 +5591,7 @@
       <c r="F232" s="20"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
-      <c r="I232" s="114"/>
+      <c r="I232" s="108"/>
       <c r="J232" s="23"/>
       <c r="K232" s="9"/>
       <c r="L232" s="10"/>
@@ -5586,7 +5610,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
-      <c r="I233" s="114"/>
+      <c r="I233" s="108"/>
       <c r="J233" s="23"/>
       <c r="K233" s="9"/>
       <c r="L233" s="10"/>
@@ -5605,7 +5629,7 @@
       <c r="F234" s="52"/>
       <c r="G234" s="52"/>
       <c r="H234" s="5"/>
-      <c r="I234" s="114"/>
+      <c r="I234" s="108"/>
       <c r="J234" s="23"/>
       <c r="K234" s="9"/>
       <c r="L234" s="17"/>
@@ -5624,7 +5648,7 @@
       <c r="F235" s="20"/>
       <c r="G235" s="30"/>
       <c r="H235" s="30"/>
-      <c r="I235" s="114"/>
+      <c r="I235" s="108"/>
       <c r="J235" s="31"/>
       <c r="K235" s="9"/>
       <c r="L235" s="10"/>
@@ -5643,7 +5667,7 @@
       <c r="F236" s="28"/>
       <c r="G236" s="30"/>
       <c r="H236" s="8"/>
-      <c r="I236" s="99"/>
+      <c r="I236" s="98"/>
       <c r="J236" s="31"/>
       <c r="K236" s="9"/>
       <c r="L236" s="10"/>
@@ -5662,7 +5686,7 @@
       <c r="F237" s="28"/>
       <c r="G237" s="30"/>
       <c r="H237" s="8"/>
-      <c r="I237" s="99"/>
+      <c r="I237" s="98"/>
       <c r="J237" s="31"/>
       <c r="K237" s="9"/>
       <c r="L237" s="10"/>
@@ -5681,7 +5705,7 @@
       <c r="F238" s="28"/>
       <c r="G238" s="30"/>
       <c r="H238" s="8"/>
-      <c r="I238" s="99"/>
+      <c r="I238" s="98"/>
       <c r="J238" s="31"/>
       <c r="K238" s="9"/>
       <c r="L238" s="10"/>
@@ -5700,7 +5724,7 @@
       <c r="F239" s="28"/>
       <c r="G239" s="30"/>
       <c r="H239" s="8"/>
-      <c r="I239" s="99"/>
+      <c r="I239" s="98"/>
       <c r="J239" s="31"/>
       <c r="K239" s="9"/>
       <c r="L239" s="10"/>
@@ -5719,7 +5743,7 @@
       <c r="F240" s="52"/>
       <c r="G240" s="59"/>
       <c r="H240" s="53"/>
-      <c r="I240" s="99"/>
+      <c r="I240" s="98"/>
       <c r="J240" s="31"/>
       <c r="K240" s="9"/>
       <c r="L240" s="10"/>
@@ -5733,12 +5757,12 @@
       <c r="A241" s="62"/>
       <c r="B241" s="54"/>
       <c r="C241" s="62"/>
-      <c r="D241" s="102"/>
-      <c r="E241" s="102"/>
+      <c r="D241" s="101"/>
+      <c r="E241" s="101"/>
       <c r="F241" s="62"/>
       <c r="G241" s="62"/>
       <c r="H241" s="63"/>
-      <c r="I241" s="115"/>
+      <c r="I241" s="109"/>
       <c r="J241" s="31"/>
       <c r="K241" s="9"/>
       <c r="L241" s="10"/>
@@ -5752,12 +5776,12 @@
       <c r="A242" s="51"/>
       <c r="B242" s="55"/>
       <c r="C242" s="52"/>
-      <c r="D242" s="102"/>
-      <c r="E242" s="102"/>
+      <c r="D242" s="101"/>
+      <c r="E242" s="101"/>
       <c r="F242" s="52"/>
       <c r="G242" s="59"/>
       <c r="H242" s="53"/>
-      <c r="I242" s="99"/>
+      <c r="I242" s="98"/>
       <c r="J242" s="31"/>
       <c r="K242" s="9"/>
       <c r="L242" s="10"/>
@@ -5771,12 +5795,12 @@
       <c r="A243" s="51"/>
       <c r="B243" s="55"/>
       <c r="C243" s="28"/>
-      <c r="D243" s="102"/>
-      <c r="E243" s="102"/>
+      <c r="D243" s="101"/>
+      <c r="E243" s="101"/>
       <c r="F243" s="28"/>
       <c r="G243" s="30"/>
       <c r="H243" s="30"/>
-      <c r="I243" s="99"/>
+      <c r="I243" s="98"/>
       <c r="J243" s="31"/>
       <c r="K243" s="9"/>
       <c r="L243" s="10"/>
@@ -5790,12 +5814,12 @@
       <c r="A244" s="51"/>
       <c r="B244" s="55"/>
       <c r="C244" s="28"/>
-      <c r="D244" s="102"/>
-      <c r="E244" s="102"/>
+      <c r="D244" s="101"/>
+      <c r="E244" s="101"/>
       <c r="F244" s="28"/>
       <c r="G244" s="30"/>
       <c r="H244" s="30"/>
-      <c r="I244" s="99"/>
+      <c r="I244" s="98"/>
       <c r="J244" s="31"/>
       <c r="K244" s="9"/>
       <c r="L244" s="10"/>
@@ -5809,12 +5833,12 @@
       <c r="A245" s="51"/>
       <c r="B245" s="55"/>
       <c r="C245" s="28"/>
-      <c r="D245" s="102"/>
-      <c r="E245" s="102"/>
+      <c r="D245" s="101"/>
+      <c r="E245" s="101"/>
       <c r="F245" s="28"/>
       <c r="G245" s="30"/>
       <c r="H245" s="30"/>
-      <c r="I245" s="99"/>
+      <c r="I245" s="98"/>
       <c r="J245" s="31"/>
       <c r="K245" s="9"/>
       <c r="L245" s="10"/>
@@ -5828,12 +5852,12 @@
       <c r="A246" s="51"/>
       <c r="B246" s="55"/>
       <c r="C246" s="28"/>
-      <c r="D246" s="102"/>
-      <c r="E246" s="102"/>
+      <c r="D246" s="101"/>
+      <c r="E246" s="101"/>
       <c r="F246" s="28"/>
       <c r="G246" s="30"/>
       <c r="H246" s="30"/>
-      <c r="I246" s="99"/>
+      <c r="I246" s="98"/>
       <c r="J246" s="31"/>
       <c r="K246" s="9"/>
       <c r="L246" s="10"/>
@@ -5847,12 +5871,12 @@
       <c r="A247" s="51"/>
       <c r="B247" s="55"/>
       <c r="C247" s="28"/>
-      <c r="D247" s="102"/>
+      <c r="D247" s="101"/>
       <c r="E247" s="28"/>
-      <c r="F247" s="102"/>
+      <c r="F247" s="101"/>
       <c r="G247" s="30"/>
       <c r="H247" s="30"/>
-      <c r="I247" s="99"/>
+      <c r="I247" s="98"/>
       <c r="J247" s="31"/>
       <c r="K247" s="9"/>
       <c r="L247" s="10"/>
@@ -5866,12 +5890,12 @@
       <c r="A248" s="51"/>
       <c r="B248" s="55"/>
       <c r="C248" s="28"/>
-      <c r="D248" s="102"/>
-      <c r="E248" s="102"/>
-      <c r="F248" s="102"/>
+      <c r="D248" s="101"/>
+      <c r="E248" s="101"/>
+      <c r="F248" s="101"/>
       <c r="G248" s="30"/>
       <c r="H248" s="30"/>
-      <c r="I248" s="99"/>
+      <c r="I248" s="98"/>
       <c r="J248" s="31"/>
       <c r="K248" s="9"/>
       <c r="L248" s="10"/>
@@ -5885,12 +5909,12 @@
       <c r="A249" s="27"/>
       <c r="B249" s="55"/>
       <c r="C249" s="28"/>
-      <c r="D249" s="103"/>
+      <c r="D249" s="102"/>
       <c r="E249" s="28"/>
-      <c r="F249" s="103"/>
+      <c r="F249" s="102"/>
       <c r="G249" s="30"/>
       <c r="H249" s="30"/>
-      <c r="I249" s="99"/>
+      <c r="I249" s="98"/>
       <c r="J249" s="31"/>
       <c r="K249" s="9"/>
       <c r="L249" s="10"/>
@@ -5904,12 +5928,12 @@
       <c r="A250" s="51"/>
       <c r="B250" s="55"/>
       <c r="C250" s="28"/>
-      <c r="D250" s="102"/>
+      <c r="D250" s="101"/>
       <c r="E250" s="6"/>
-      <c r="F250" s="102"/>
+      <c r="F250" s="101"/>
       <c r="G250" s="30"/>
       <c r="H250" s="30"/>
-      <c r="I250" s="99"/>
+      <c r="I250" s="98"/>
       <c r="J250" s="31"/>
       <c r="K250" s="9"/>
       <c r="L250" s="10"/>
@@ -5923,12 +5947,12 @@
       <c r="A251" s="51"/>
       <c r="B251" s="55"/>
       <c r="C251" s="28"/>
-      <c r="D251" s="102"/>
+      <c r="D251" s="101"/>
       <c r="E251" s="28"/>
-      <c r="F251" s="102"/>
+      <c r="F251" s="101"/>
       <c r="G251" s="30"/>
       <c r="H251" s="30"/>
-      <c r="I251" s="99"/>
+      <c r="I251" s="98"/>
       <c r="J251" s="31"/>
       <c r="K251" s="9"/>
       <c r="L251" s="10"/>
@@ -5942,12 +5966,12 @@
       <c r="A252" s="51"/>
       <c r="B252" s="55"/>
       <c r="C252" s="28"/>
-      <c r="D252" s="102"/>
+      <c r="D252" s="101"/>
       <c r="E252" s="6"/>
-      <c r="F252" s="102"/>
+      <c r="F252" s="101"/>
       <c r="G252" s="30"/>
       <c r="H252" s="30"/>
-      <c r="I252" s="99"/>
+      <c r="I252" s="98"/>
       <c r="J252" s="31"/>
       <c r="K252" s="9"/>
       <c r="L252" s="10"/>
@@ -5961,12 +5985,12 @@
       <c r="A253" s="51"/>
       <c r="B253" s="55"/>
       <c r="C253" s="28"/>
-      <c r="D253" s="102"/>
-      <c r="E253" s="102"/>
+      <c r="D253" s="101"/>
+      <c r="E253" s="101"/>
       <c r="F253" s="5"/>
       <c r="G253" s="30"/>
       <c r="H253" s="30"/>
-      <c r="I253" s="99"/>
+      <c r="I253" s="98"/>
       <c r="J253" s="31"/>
       <c r="K253" s="9"/>
       <c r="L253" s="10"/>
@@ -5980,12 +6004,12 @@
       <c r="A254" s="51"/>
       <c r="B254" s="55"/>
       <c r="C254" s="28"/>
-      <c r="D254" s="102"/>
-      <c r="E254" s="102"/>
+      <c r="D254" s="101"/>
+      <c r="E254" s="101"/>
       <c r="F254" s="5"/>
       <c r="G254" s="30"/>
       <c r="H254" s="30"/>
-      <c r="I254" s="99"/>
+      <c r="I254" s="98"/>
       <c r="J254" s="31"/>
       <c r="K254" s="9"/>
       <c r="L254" s="10"/>
@@ -5999,12 +6023,12 @@
       <c r="A255" s="51"/>
       <c r="B255" s="55"/>
       <c r="C255" s="28"/>
-      <c r="D255" s="102"/>
-      <c r="E255" s="102"/>
+      <c r="D255" s="101"/>
+      <c r="E255" s="101"/>
       <c r="F255" s="5"/>
       <c r="G255" s="30"/>
       <c r="H255" s="30"/>
-      <c r="I255" s="99"/>
+      <c r="I255" s="98"/>
       <c r="J255" s="31"/>
       <c r="K255" s="9"/>
       <c r="L255" s="10"/>
@@ -6018,12 +6042,12 @@
       <c r="A256" s="51"/>
       <c r="B256" s="55"/>
       <c r="C256" s="28"/>
-      <c r="D256" s="102"/>
-      <c r="E256" s="102"/>
+      <c r="D256" s="101"/>
+      <c r="E256" s="101"/>
       <c r="F256" s="5"/>
       <c r="G256" s="30"/>
       <c r="H256" s="30"/>
-      <c r="I256" s="99"/>
+      <c r="I256" s="98"/>
       <c r="J256" s="31"/>
       <c r="K256" s="9"/>
       <c r="L256" s="10"/>
@@ -6037,12 +6061,12 @@
       <c r="A257" s="51"/>
       <c r="B257" s="55"/>
       <c r="C257" s="28"/>
-      <c r="D257" s="102"/>
-      <c r="E257" s="102"/>
-      <c r="F257" s="102"/>
-      <c r="G257" s="98"/>
+      <c r="D257" s="101"/>
+      <c r="E257" s="101"/>
+      <c r="F257" s="101"/>
+      <c r="G257" s="97"/>
       <c r="H257" s="30"/>
-      <c r="I257" s="99"/>
+      <c r="I257" s="98"/>
       <c r="J257" s="31"/>
       <c r="K257" s="9"/>
       <c r="L257" s="10"/>
@@ -6056,12 +6080,12 @@
       <c r="A258" s="51"/>
       <c r="B258" s="55"/>
       <c r="C258" s="28"/>
-      <c r="D258" s="102"/>
-      <c r="E258" s="102"/>
+      <c r="D258" s="101"/>
+      <c r="E258" s="101"/>
       <c r="F258" s="5"/>
       <c r="G258" s="30"/>
       <c r="H258" s="30"/>
-      <c r="I258" s="99"/>
+      <c r="I258" s="98"/>
       <c r="J258" s="31"/>
       <c r="K258" s="9"/>
       <c r="L258" s="10"/>
@@ -6072,1018 +6096,1018 @@
       <c r="Q258" s="46"/>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A259" s="51"/>
-      <c r="B259" s="55"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="102"/>
-      <c r="E259" s="102"/>
+      <c r="A259" s="16"/>
+      <c r="B259" s="54"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="101"/>
+      <c r="E259" s="101"/>
       <c r="F259" s="5"/>
-      <c r="G259" s="30"/>
-      <c r="H259" s="30"/>
-      <c r="I259" s="99"/>
-      <c r="J259" s="31"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="47"/>
+      <c r="J259" s="8"/>
       <c r="K259" s="9"/>
       <c r="L259" s="10"/>
       <c r="M259" s="10"/>
-      <c r="N259" s="56"/>
+      <c r="N259" s="10"/>
       <c r="O259" s="11"/>
-      <c r="P259" s="32"/>
+      <c r="P259" s="6"/>
       <c r="Q259" s="46"/>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A260" s="51"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="102"/>
-      <c r="E260" s="102"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="30"/>
-      <c r="H260" s="30"/>
-      <c r="I260" s="99"/>
-      <c r="J260" s="64"/>
-      <c r="K260" s="9"/>
-      <c r="L260" s="10"/>
-      <c r="M260" s="10"/>
-      <c r="N260" s="56"/>
-      <c r="O260" s="11"/>
-      <c r="P260" s="32"/>
+      <c r="A260" s="113"/>
+      <c r="B260" s="114"/>
+      <c r="C260" s="46"/>
+      <c r="D260" s="115"/>
+      <c r="E260" s="115"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="116"/>
+      <c r="J260" s="117"/>
+      <c r="K260" s="118"/>
+      <c r="L260" s="119"/>
+      <c r="M260" s="119"/>
+      <c r="N260" s="119"/>
+      <c r="O260" s="120"/>
+      <c r="P260" s="46"/>
       <c r="Q260" s="46"/>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A261" s="51"/>
-      <c r="B261" s="55"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="102"/>
-      <c r="E261" s="102"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="30"/>
-      <c r="H261" s="30"/>
-      <c r="I261" s="99"/>
-      <c r="J261" s="64"/>
-      <c r="K261" s="9"/>
-      <c r="L261" s="10"/>
-      <c r="M261" s="10"/>
-      <c r="N261" s="56"/>
-      <c r="O261" s="11"/>
-      <c r="P261" s="32"/>
+      <c r="A261" s="113"/>
+      <c r="B261" s="114"/>
+      <c r="C261" s="46"/>
+      <c r="D261" s="115"/>
+      <c r="E261" s="115"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="116"/>
+      <c r="J261" s="117"/>
+      <c r="K261" s="118"/>
+      <c r="L261" s="119"/>
+      <c r="M261" s="119"/>
+      <c r="N261" s="119"/>
+      <c r="O261" s="120"/>
+      <c r="P261" s="46"/>
       <c r="Q261" s="46"/>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A262" s="51"/>
-      <c r="B262" s="55"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="102"/>
-      <c r="E262" s="102"/>
-      <c r="F262" s="30"/>
-      <c r="G262" s="30"/>
-      <c r="H262" s="30"/>
-      <c r="I262" s="99"/>
-      <c r="J262" s="64"/>
-      <c r="K262" s="9"/>
-      <c r="L262" s="10"/>
-      <c r="M262" s="10"/>
-      <c r="N262" s="56"/>
-      <c r="O262" s="11"/>
-      <c r="P262" s="32"/>
+      <c r="A262" s="113"/>
+      <c r="B262" s="114"/>
+      <c r="C262" s="46"/>
+      <c r="D262" s="115"/>
+      <c r="E262" s="115"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="116"/>
+      <c r="J262" s="117"/>
+      <c r="K262" s="118"/>
+      <c r="L262" s="119"/>
+      <c r="M262" s="119"/>
+      <c r="N262" s="119"/>
+      <c r="O262" s="120"/>
+      <c r="P262" s="46"/>
       <c r="Q262" s="46"/>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A263" s="51"/>
-      <c r="B263" s="55"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="102"/>
-      <c r="E263" s="102"/>
-      <c r="F263" s="30"/>
-      <c r="G263" s="30"/>
-      <c r="H263" s="30"/>
-      <c r="I263" s="99"/>
-      <c r="J263" s="64"/>
-      <c r="K263" s="9"/>
-      <c r="L263" s="10"/>
-      <c r="M263" s="10"/>
-      <c r="N263" s="56"/>
-      <c r="O263" s="11"/>
-      <c r="P263" s="32"/>
+      <c r="A263" s="113"/>
+      <c r="B263" s="114"/>
+      <c r="C263" s="46"/>
+      <c r="D263" s="115"/>
+      <c r="E263" s="115"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="116"/>
+      <c r="J263" s="117"/>
+      <c r="K263" s="118"/>
+      <c r="L263" s="119"/>
+      <c r="M263" s="119"/>
+      <c r="N263" s="119"/>
+      <c r="O263" s="120"/>
+      <c r="P263" s="46"/>
       <c r="Q263" s="46"/>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A264" s="16"/>
-      <c r="B264" s="54"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="102"/>
-      <c r="E264" s="102"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
-      <c r="I264" s="47"/>
-      <c r="J264" s="105"/>
-      <c r="K264" s="9"/>
-      <c r="L264" s="10"/>
-      <c r="M264" s="10"/>
-      <c r="N264" s="10"/>
-      <c r="O264" s="11"/>
-      <c r="P264" s="6"/>
+      <c r="A264" s="113"/>
+      <c r="B264" s="114"/>
+      <c r="C264" s="46"/>
+      <c r="D264" s="115"/>
+      <c r="E264" s="115"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="116"/>
+      <c r="J264" s="117"/>
+      <c r="K264" s="118"/>
+      <c r="L264" s="119"/>
+      <c r="M264" s="119"/>
+      <c r="N264" s="119"/>
+      <c r="O264" s="120"/>
+      <c r="P264" s="46"/>
       <c r="Q264" s="46"/>
     </row>
-    <row r="265" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A265" s="51"/>
-      <c r="B265" s="55"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="102"/>
-      <c r="E265" s="102"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="30"/>
-      <c r="H265" s="30"/>
-      <c r="I265" s="99"/>
-      <c r="J265" s="31"/>
-      <c r="K265" s="9"/>
-      <c r="L265" s="10"/>
-      <c r="M265" s="10"/>
-      <c r="N265" s="56"/>
-      <c r="O265" s="11"/>
-      <c r="P265" s="32"/>
-    </row>
-    <row r="266" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A266" s="51"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="102"/>
-      <c r="E266" s="102"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="30"/>
-      <c r="H266" s="30"/>
-      <c r="I266" s="99"/>
-      <c r="J266" s="31"/>
-      <c r="K266" s="9"/>
-      <c r="L266" s="10"/>
-      <c r="M266" s="10"/>
-      <c r="N266" s="56"/>
-      <c r="O266" s="11"/>
-      <c r="P266" s="32"/>
-    </row>
-    <row r="267" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A267" s="51"/>
-      <c r="B267" s="55"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="102"/>
-      <c r="E267" s="102"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="30"/>
-      <c r="H267" s="30"/>
-      <c r="I267" s="99"/>
-      <c r="J267" s="64"/>
-      <c r="K267" s="9"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="56"/>
-      <c r="O267" s="11"/>
-      <c r="P267" s="32"/>
-    </row>
-    <row r="268" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A268" s="51"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="102"/>
-      <c r="E268" s="102"/>
-      <c r="F268" s="5"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="30"/>
-      <c r="I268" s="99"/>
-      <c r="J268" s="64"/>
-      <c r="K268" s="9"/>
-      <c r="L268" s="10"/>
-      <c r="M268" s="10"/>
-      <c r="N268" s="56"/>
-      <c r="O268" s="11"/>
-      <c r="P268" s="32"/>
-    </row>
-    <row r="269" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="51"/>
-      <c r="B269" s="55"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="102"/>
-      <c r="E269" s="102"/>
-      <c r="F269" s="30"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="30"/>
-      <c r="I269" s="99"/>
-      <c r="J269" s="64"/>
-      <c r="K269" s="9"/>
-      <c r="L269" s="10"/>
-      <c r="M269" s="10"/>
-      <c r="N269" s="56"/>
-      <c r="O269" s="11"/>
-      <c r="P269" s="32"/>
-    </row>
-    <row r="270" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="51"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="102"/>
-      <c r="E270" s="102"/>
-      <c r="F270" s="30"/>
-      <c r="G270" s="30"/>
-      <c r="H270" s="30"/>
-      <c r="I270" s="99"/>
-      <c r="J270" s="64"/>
-      <c r="K270" s="9"/>
-      <c r="L270" s="10"/>
-      <c r="M270" s="10"/>
-      <c r="N270" s="56"/>
-      <c r="O270" s="11"/>
-      <c r="P270" s="32"/>
-    </row>
-    <row r="271" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A271" s="16"/>
-      <c r="B271" s="54"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="102"/>
-      <c r="E271" s="102"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="5"/>
-      <c r="I271" s="47"/>
-      <c r="J271" s="105"/>
-      <c r="K271" s="9"/>
-      <c r="L271" s="10"/>
-      <c r="M271" s="10"/>
-      <c r="N271" s="10"/>
-      <c r="O271" s="11"/>
-      <c r="P271" s="6"/>
-    </row>
-    <row r="272" spans="1:17" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I272" s="116"/>
-    </row>
-    <row r="273" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I273" s="116"/>
-    </row>
-    <row r="274" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I274" s="116"/>
-    </row>
-    <row r="275" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I275" s="116"/>
-    </row>
-    <row r="276" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I276" s="116"/>
-    </row>
-    <row r="277" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I277" s="116"/>
-    </row>
-    <row r="278" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I278" s="116"/>
-    </row>
-    <row r="279" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I279" s="116"/>
-    </row>
-    <row r="280" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I280" s="116"/>
-    </row>
-    <row r="281" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I281" s="116"/>
-    </row>
-    <row r="282" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I282" s="116"/>
-    </row>
-    <row r="283" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I283" s="116"/>
-    </row>
-    <row r="284" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I284" s="116"/>
-    </row>
-    <row r="285" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I285" s="116"/>
-    </row>
-    <row r="286" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I286" s="116"/>
-    </row>
-    <row r="287" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I287" s="116"/>
-    </row>
-    <row r="288" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I288" s="116"/>
-    </row>
-    <row r="289" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I289" s="116"/>
-    </row>
-    <row r="290" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I290" s="116"/>
-    </row>
-    <row r="291" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I291" s="116"/>
-    </row>
-    <row r="292" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I292" s="116"/>
-    </row>
-    <row r="293" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I293" s="116"/>
-    </row>
-    <row r="294" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I294" s="116"/>
-    </row>
-    <row r="295" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I295" s="116"/>
-    </row>
-    <row r="296" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I296" s="116"/>
-    </row>
-    <row r="297" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I297" s="116"/>
-    </row>
-    <row r="298" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I298" s="116"/>
-    </row>
-    <row r="299" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I299" s="116"/>
-    </row>
-    <row r="300" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I300" s="116"/>
-    </row>
-    <row r="301" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I301" s="116"/>
-    </row>
-    <row r="302" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I302" s="116"/>
-    </row>
-    <row r="303" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I303" s="116"/>
-    </row>
-    <row r="304" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I304" s="116"/>
-    </row>
-    <row r="305" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I305" s="116"/>
-    </row>
-    <row r="306" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I306" s="116"/>
-    </row>
-    <row r="307" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I307" s="116"/>
-    </row>
-    <row r="308" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I308" s="116"/>
-    </row>
-    <row r="309" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I309" s="116"/>
-    </row>
-    <row r="310" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I310" s="116"/>
-    </row>
-    <row r="311" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I311" s="116"/>
-    </row>
-    <row r="312" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I312" s="116"/>
-    </row>
-    <row r="313" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I313" s="116"/>
-    </row>
-    <row r="314" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I314" s="116"/>
-    </row>
-    <row r="315" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I315" s="116"/>
-    </row>
-    <row r="316" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I316" s="116"/>
-    </row>
-    <row r="317" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I317" s="116"/>
-    </row>
-    <row r="318" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I318" s="116"/>
-    </row>
-    <row r="319" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I319" s="116"/>
-    </row>
-    <row r="320" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I320" s="116"/>
-    </row>
-    <row r="321" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I321" s="116"/>
-    </row>
-    <row r="322" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I322" s="116"/>
-    </row>
-    <row r="323" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I323" s="116"/>
-    </row>
-    <row r="324" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I324" s="116"/>
-    </row>
-    <row r="325" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I325" s="116"/>
-    </row>
-    <row r="326" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I326" s="116"/>
-    </row>
-    <row r="327" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I327" s="116"/>
-    </row>
-    <row r="328" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I328" s="116"/>
-    </row>
-    <row r="329" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I329" s="116"/>
-    </row>
-    <row r="330" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I330" s="116"/>
-    </row>
-    <row r="331" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I331" s="116"/>
-    </row>
-    <row r="332" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I332" s="116"/>
-    </row>
-    <row r="333" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I333" s="116"/>
-    </row>
-    <row r="334" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I334" s="116"/>
-    </row>
-    <row r="335" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I335" s="116"/>
-    </row>
-    <row r="336" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I336" s="116"/>
-    </row>
-    <row r="337" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I337" s="116"/>
-    </row>
-    <row r="338" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I338" s="116"/>
-    </row>
-    <row r="339" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I339" s="116"/>
-    </row>
-    <row r="340" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I340" s="116"/>
-    </row>
-    <row r="341" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I341" s="116"/>
-    </row>
-    <row r="342" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I342" s="116"/>
-    </row>
-    <row r="343" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I343" s="116"/>
-    </row>
-    <row r="344" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I344" s="116"/>
-    </row>
-    <row r="345" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I345" s="116"/>
-    </row>
-    <row r="346" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I346" s="116"/>
-    </row>
-    <row r="347" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I347" s="116"/>
-    </row>
-    <row r="348" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I348" s="116"/>
-    </row>
-    <row r="349" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I349" s="116"/>
-    </row>
-    <row r="350" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I350" s="116"/>
-    </row>
-    <row r="351" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I351" s="116"/>
-    </row>
-    <row r="352" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I352" s="116"/>
-    </row>
-    <row r="353" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I353" s="116"/>
-    </row>
-    <row r="354" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I354" s="116"/>
-    </row>
-    <row r="355" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I355" s="116"/>
-    </row>
-    <row r="356" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I356" s="116"/>
-    </row>
-    <row r="357" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I357" s="116"/>
-    </row>
-    <row r="358" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I358" s="116"/>
-    </row>
-    <row r="359" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I359" s="116"/>
-    </row>
-    <row r="360" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I360" s="116"/>
-    </row>
-    <row r="361" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I361" s="116"/>
-    </row>
-    <row r="362" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I362" s="116"/>
-    </row>
-    <row r="363" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I363" s="116"/>
-    </row>
-    <row r="364" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I364" s="116"/>
-    </row>
-    <row r="365" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I365" s="116"/>
-    </row>
-    <row r="366" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I366" s="116"/>
-    </row>
-    <row r="367" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I367" s="116"/>
-    </row>
-    <row r="368" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I368" s="116"/>
-    </row>
-    <row r="369" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I369" s="116"/>
-    </row>
-    <row r="370" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I370" s="116"/>
-    </row>
-    <row r="371" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I371" s="116"/>
-    </row>
-    <row r="372" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I372" s="116"/>
-    </row>
-    <row r="373" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I373" s="116"/>
-    </row>
-    <row r="374" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I374" s="116"/>
-    </row>
-    <row r="375" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I375" s="116"/>
-    </row>
-    <row r="376" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I376" s="116"/>
-    </row>
-    <row r="377" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I377" s="116"/>
-    </row>
-    <row r="378" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I378" s="116"/>
-    </row>
-    <row r="379" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I379" s="116"/>
-    </row>
-    <row r="380" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I380" s="116"/>
-    </row>
-    <row r="381" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I381" s="116"/>
-    </row>
-    <row r="382" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I382" s="116"/>
-    </row>
-    <row r="383" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I383" s="116"/>
-    </row>
-    <row r="384" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I384" s="116"/>
-    </row>
-    <row r="385" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I385" s="116"/>
-    </row>
-    <row r="386" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I386" s="116"/>
-    </row>
-    <row r="387" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I387" s="116"/>
-    </row>
-    <row r="388" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I388" s="116"/>
-    </row>
-    <row r="389" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I389" s="116"/>
-    </row>
-    <row r="390" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I390" s="116"/>
-    </row>
-    <row r="391" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I391" s="116"/>
-    </row>
-    <row r="392" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I392" s="116"/>
-    </row>
-    <row r="393" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I393" s="116"/>
-    </row>
-    <row r="394" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I394" s="116"/>
-    </row>
-    <row r="395" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I395" s="116"/>
-    </row>
-    <row r="396" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I396" s="116"/>
-    </row>
-    <row r="397" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I397" s="116"/>
-    </row>
-    <row r="398" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I398" s="116"/>
-    </row>
-    <row r="399" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I399" s="116"/>
-    </row>
-    <row r="400" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I400" s="116"/>
-    </row>
-    <row r="401" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I401" s="116"/>
-    </row>
-    <row r="402" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I402" s="116"/>
-    </row>
-    <row r="403" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I403" s="116"/>
-    </row>
-    <row r="404" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I404" s="116"/>
-    </row>
-    <row r="405" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I405" s="116"/>
-    </row>
-    <row r="406" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I406" s="116"/>
-    </row>
-    <row r="407" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I407" s="116"/>
-    </row>
-    <row r="408" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I408" s="116"/>
-    </row>
-    <row r="409" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I409" s="116"/>
-    </row>
-    <row r="410" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I410" s="116"/>
-    </row>
-    <row r="411" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I411" s="116"/>
-    </row>
-    <row r="412" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I412" s="116"/>
-    </row>
-    <row r="413" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I413" s="116"/>
-    </row>
-    <row r="414" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I414" s="116"/>
-    </row>
-    <row r="415" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I415" s="116"/>
-    </row>
-    <row r="416" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I416" s="116"/>
-    </row>
-    <row r="417" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I417" s="116"/>
-    </row>
-    <row r="418" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I418" s="116"/>
-    </row>
-    <row r="419" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I419" s="116"/>
-    </row>
-    <row r="420" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I420" s="116"/>
-    </row>
-    <row r="421" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I421" s="116"/>
-    </row>
-    <row r="422" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I422" s="116"/>
-    </row>
-    <row r="423" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I423" s="116"/>
-    </row>
-    <row r="424" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I424" s="116"/>
-    </row>
-    <row r="425" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I425" s="116"/>
-    </row>
-    <row r="426" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I426" s="116"/>
-    </row>
-    <row r="427" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I427" s="116"/>
-    </row>
-    <row r="428" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I428" s="116"/>
-    </row>
-    <row r="429" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I429" s="116"/>
-    </row>
-    <row r="430" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I430" s="116"/>
-    </row>
-    <row r="431" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I431" s="116"/>
-    </row>
-    <row r="432" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I432" s="116"/>
-    </row>
-    <row r="433" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I433" s="116"/>
-    </row>
-    <row r="434" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I434" s="116"/>
-    </row>
-    <row r="435" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I435" s="116"/>
-    </row>
-    <row r="436" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I436" s="116"/>
-    </row>
-    <row r="437" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I437" s="116"/>
-    </row>
-    <row r="438" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I438" s="116"/>
-    </row>
-    <row r="439" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I439" s="116"/>
-    </row>
-    <row r="440" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I440" s="116"/>
-    </row>
-    <row r="441" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I441" s="116"/>
-    </row>
-    <row r="442" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I442" s="116"/>
-    </row>
-    <row r="443" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I443" s="116"/>
-    </row>
-    <row r="444" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I444" s="116"/>
-    </row>
-    <row r="445" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I445" s="116"/>
-    </row>
-    <row r="446" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I446" s="116"/>
-    </row>
-    <row r="447" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I447" s="116"/>
-    </row>
-    <row r="448" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I448" s="116"/>
-    </row>
-    <row r="449" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I449" s="116"/>
-    </row>
-    <row r="450" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I450" s="116"/>
-    </row>
-    <row r="451" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I451" s="116"/>
-    </row>
-    <row r="452" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I452" s="116"/>
-    </row>
-    <row r="453" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I453" s="116"/>
-    </row>
-    <row r="454" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I454" s="116"/>
-    </row>
-    <row r="455" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I455" s="116"/>
-    </row>
-    <row r="456" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I456" s="116"/>
-    </row>
-    <row r="457" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I457" s="116"/>
-    </row>
-    <row r="458" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I458" s="116"/>
-    </row>
-    <row r="459" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I459" s="116"/>
-    </row>
-    <row r="460" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I460" s="116"/>
-    </row>
-    <row r="461" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I461" s="116"/>
-    </row>
-    <row r="462" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I462" s="116"/>
-    </row>
-    <row r="463" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I463" s="116"/>
-    </row>
-    <row r="464" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I464" s="116"/>
-    </row>
-    <row r="465" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I465" s="116"/>
-    </row>
-    <row r="466" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I466" s="116"/>
-    </row>
-    <row r="467" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I467" s="116"/>
-    </row>
-    <row r="468" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I468" s="116"/>
-    </row>
-    <row r="469" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I469" s="116"/>
-    </row>
-    <row r="470" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I470" s="116"/>
-    </row>
-    <row r="471" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I471" s="116"/>
-    </row>
-    <row r="472" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I472" s="116"/>
-    </row>
-    <row r="473" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I473" s="116"/>
-    </row>
-    <row r="474" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I474" s="116"/>
-    </row>
-    <row r="475" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I475" s="116"/>
-    </row>
-    <row r="476" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I476" s="116"/>
-    </row>
-    <row r="477" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I477" s="116"/>
-    </row>
-    <row r="478" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I478" s="116"/>
-    </row>
-    <row r="479" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I479" s="116"/>
-    </row>
-    <row r="480" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I480" s="116"/>
-    </row>
-    <row r="481" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I481" s="116"/>
-    </row>
-    <row r="482" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I482" s="116"/>
-    </row>
-    <row r="483" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I483" s="116"/>
-    </row>
-    <row r="484" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I484" s="116"/>
-    </row>
-    <row r="485" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I485" s="116"/>
-    </row>
-    <row r="486" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I486" s="116"/>
-    </row>
-    <row r="487" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I487" s="116"/>
-    </row>
-    <row r="488" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I488" s="116"/>
-    </row>
-    <row r="489" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I489" s="116"/>
-    </row>
-    <row r="490" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I490" s="116"/>
-    </row>
-    <row r="491" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I491" s="116"/>
-    </row>
-    <row r="492" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I492" s="116"/>
-    </row>
-    <row r="493" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I493" s="116"/>
-    </row>
-    <row r="494" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I494" s="116"/>
-    </row>
-    <row r="495" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I495" s="116"/>
-    </row>
-    <row r="496" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I496" s="116"/>
-    </row>
-    <row r="497" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I497" s="116"/>
-    </row>
-    <row r="498" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I498" s="116"/>
-    </row>
-    <row r="499" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I499" s="116"/>
-    </row>
-    <row r="500" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I500" s="116"/>
-    </row>
-    <row r="501" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I501" s="116"/>
-    </row>
-    <row r="502" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I502" s="116"/>
-    </row>
-    <row r="503" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I503" s="116"/>
-    </row>
-    <row r="504" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I504" s="116"/>
-    </row>
-    <row r="505" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I505" s="116"/>
-    </row>
-    <row r="506" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I506" s="116"/>
-    </row>
-    <row r="507" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I507" s="116"/>
-    </row>
-    <row r="508" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I508" s="116"/>
-    </row>
-    <row r="509" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I509" s="116"/>
-    </row>
-    <row r="510" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I510" s="116"/>
-    </row>
-    <row r="511" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I511" s="116"/>
-    </row>
-    <row r="512" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I512" s="116"/>
-    </row>
-    <row r="513" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I513" s="116"/>
-    </row>
-    <row r="514" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I514" s="116"/>
-    </row>
-    <row r="515" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I515" s="116"/>
-    </row>
-    <row r="516" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I516" s="116"/>
-    </row>
-    <row r="517" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I517" s="116"/>
-    </row>
-    <row r="518" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I518" s="116"/>
-    </row>
-    <row r="519" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I519" s="116"/>
-    </row>
-    <row r="520" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I520" s="116"/>
-    </row>
-    <row r="521" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I521" s="116"/>
-    </row>
-    <row r="522" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I522" s="116"/>
-    </row>
-    <row r="523" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I523" s="116"/>
-    </row>
-    <row r="524" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I524" s="116"/>
-    </row>
-    <row r="525" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I525" s="116"/>
-    </row>
-    <row r="526" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I526" s="116"/>
-    </row>
-    <row r="527" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I527" s="116"/>
-    </row>
-    <row r="528" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I528" s="116"/>
-    </row>
-    <row r="529" spans="9:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="I529" s="116"/>
+    <row r="265" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A265" s="113"/>
+      <c r="B265" s="114"/>
+      <c r="C265" s="46"/>
+      <c r="D265" s="115"/>
+      <c r="E265" s="115"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="116"/>
+      <c r="J265" s="121"/>
+      <c r="K265" s="118"/>
+      <c r="L265" s="119"/>
+      <c r="M265" s="119"/>
+      <c r="N265" s="119"/>
+      <c r="O265" s="120"/>
+      <c r="P265" s="46"/>
+    </row>
+    <row r="266" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A266" s="113"/>
+      <c r="B266" s="114"/>
+      <c r="C266" s="46"/>
+      <c r="D266" s="115"/>
+      <c r="E266" s="115"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="116"/>
+      <c r="J266" s="121"/>
+      <c r="K266" s="118"/>
+      <c r="L266" s="119"/>
+      <c r="M266" s="119"/>
+      <c r="N266" s="119"/>
+      <c r="O266" s="120"/>
+      <c r="P266" s="46"/>
+    </row>
+    <row r="267" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A267" s="113"/>
+      <c r="B267" s="114"/>
+      <c r="C267" s="46"/>
+      <c r="D267" s="115"/>
+      <c r="E267" s="115"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="116"/>
+      <c r="J267" s="117"/>
+      <c r="K267" s="118"/>
+      <c r="L267" s="119"/>
+      <c r="M267" s="119"/>
+      <c r="N267" s="119"/>
+      <c r="O267" s="120"/>
+      <c r="P267" s="46"/>
+    </row>
+    <row r="268" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A268" s="113"/>
+      <c r="B268" s="114"/>
+      <c r="C268" s="46"/>
+      <c r="D268" s="115"/>
+      <c r="E268" s="115"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="116"/>
+      <c r="J268" s="117"/>
+      <c r="K268" s="118"/>
+      <c r="L268" s="119"/>
+      <c r="M268" s="119"/>
+      <c r="N268" s="119"/>
+      <c r="O268" s="120"/>
+      <c r="P268" s="46"/>
+    </row>
+    <row r="269" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269" s="113"/>
+      <c r="B269" s="114"/>
+      <c r="C269" s="46"/>
+      <c r="D269" s="115"/>
+      <c r="E269" s="115"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="116"/>
+      <c r="J269" s="117"/>
+      <c r="K269" s="118"/>
+      <c r="L269" s="119"/>
+      <c r="M269" s="119"/>
+      <c r="N269" s="119"/>
+      <c r="O269" s="120"/>
+      <c r="P269" s="46"/>
+    </row>
+    <row r="270" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A270" s="113"/>
+      <c r="B270" s="114"/>
+      <c r="C270" s="46"/>
+      <c r="D270" s="115"/>
+      <c r="E270" s="115"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="116"/>
+      <c r="J270" s="117"/>
+      <c r="K270" s="118"/>
+      <c r="L270" s="119"/>
+      <c r="M270" s="119"/>
+      <c r="N270" s="119"/>
+      <c r="O270" s="120"/>
+      <c r="P270" s="46"/>
+    </row>
+    <row r="271" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A271" s="113"/>
+      <c r="B271" s="114"/>
+      <c r="C271" s="46"/>
+      <c r="D271" s="115"/>
+      <c r="E271" s="115"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="116"/>
+      <c r="J271" s="117"/>
+      <c r="K271" s="118"/>
+      <c r="L271" s="119"/>
+      <c r="M271" s="119"/>
+      <c r="N271" s="119"/>
+      <c r="O271" s="120"/>
+      <c r="P271" s="46"/>
+    </row>
+    <row r="272" spans="1:17" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I272" s="110"/>
+    </row>
+    <row r="273" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I273" s="110"/>
+    </row>
+    <row r="274" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I274" s="110"/>
+    </row>
+    <row r="275" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I275" s="110"/>
+    </row>
+    <row r="276" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I276" s="110"/>
+    </row>
+    <row r="277" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I277" s="110"/>
+    </row>
+    <row r="278" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I278" s="110"/>
+    </row>
+    <row r="279" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I279" s="110"/>
+    </row>
+    <row r="280" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I280" s="110"/>
+    </row>
+    <row r="281" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I281" s="110"/>
+    </row>
+    <row r="282" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I282" s="110"/>
+    </row>
+    <row r="283" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I283" s="110"/>
+    </row>
+    <row r="284" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I284" s="110"/>
+    </row>
+    <row r="285" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I285" s="110"/>
+    </row>
+    <row r="286" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I286" s="110"/>
+    </row>
+    <row r="287" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I287" s="110"/>
+    </row>
+    <row r="288" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I288" s="110"/>
+    </row>
+    <row r="289" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I289" s="110"/>
+    </row>
+    <row r="290" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I290" s="110"/>
+    </row>
+    <row r="291" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I291" s="110"/>
+    </row>
+    <row r="292" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I292" s="110"/>
+    </row>
+    <row r="293" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I293" s="110"/>
+    </row>
+    <row r="294" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I294" s="110"/>
+    </row>
+    <row r="295" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I295" s="110"/>
+    </row>
+    <row r="296" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I296" s="110"/>
+    </row>
+    <row r="297" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I297" s="110"/>
+    </row>
+    <row r="298" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I298" s="110"/>
+    </row>
+    <row r="299" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I299" s="110"/>
+    </row>
+    <row r="300" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I300" s="110"/>
+    </row>
+    <row r="301" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I301" s="110"/>
+    </row>
+    <row r="302" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I302" s="110"/>
+    </row>
+    <row r="303" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I303" s="110"/>
+    </row>
+    <row r="304" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I304" s="110"/>
+    </row>
+    <row r="305" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I305" s="110"/>
+    </row>
+    <row r="306" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I306" s="110"/>
+    </row>
+    <row r="307" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I307" s="110"/>
+    </row>
+    <row r="308" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I308" s="110"/>
+    </row>
+    <row r="309" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I309" s="110"/>
+    </row>
+    <row r="310" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I310" s="110"/>
+    </row>
+    <row r="311" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I311" s="110"/>
+    </row>
+    <row r="312" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I312" s="110"/>
+    </row>
+    <row r="313" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I313" s="110"/>
+    </row>
+    <row r="314" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I314" s="110"/>
+    </row>
+    <row r="315" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I315" s="110"/>
+    </row>
+    <row r="316" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I316" s="110"/>
+    </row>
+    <row r="317" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I317" s="110"/>
+    </row>
+    <row r="318" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I318" s="110"/>
+    </row>
+    <row r="319" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I319" s="110"/>
+    </row>
+    <row r="320" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I320" s="110"/>
+    </row>
+    <row r="321" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I321" s="110"/>
+    </row>
+    <row r="322" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I322" s="110"/>
+    </row>
+    <row r="323" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I323" s="110"/>
+    </row>
+    <row r="324" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I324" s="110"/>
+    </row>
+    <row r="325" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I325" s="110"/>
+    </row>
+    <row r="326" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I326" s="110"/>
+    </row>
+    <row r="327" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I327" s="110"/>
+    </row>
+    <row r="328" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I328" s="110"/>
+    </row>
+    <row r="329" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I329" s="110"/>
+    </row>
+    <row r="330" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I330" s="110"/>
+    </row>
+    <row r="331" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I331" s="110"/>
+    </row>
+    <row r="332" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I332" s="110"/>
+    </row>
+    <row r="333" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I333" s="110"/>
+    </row>
+    <row r="334" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I334" s="110"/>
+    </row>
+    <row r="335" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I335" s="110"/>
+    </row>
+    <row r="336" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I336" s="110"/>
+    </row>
+    <row r="337" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I337" s="110"/>
+    </row>
+    <row r="338" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I338" s="110"/>
+    </row>
+    <row r="339" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I339" s="110"/>
+    </row>
+    <row r="340" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I340" s="110"/>
+    </row>
+    <row r="341" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I341" s="110"/>
+    </row>
+    <row r="342" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I342" s="110"/>
+    </row>
+    <row r="343" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I343" s="110"/>
+    </row>
+    <row r="344" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I344" s="110"/>
+    </row>
+    <row r="345" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I345" s="110"/>
+    </row>
+    <row r="346" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I346" s="110"/>
+    </row>
+    <row r="347" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I347" s="110"/>
+    </row>
+    <row r="348" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I348" s="110"/>
+    </row>
+    <row r="349" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I349" s="110"/>
+    </row>
+    <row r="350" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I350" s="110"/>
+    </row>
+    <row r="351" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I351" s="110"/>
+    </row>
+    <row r="352" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I352" s="110"/>
+    </row>
+    <row r="353" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I353" s="110"/>
+    </row>
+    <row r="354" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I354" s="110"/>
+    </row>
+    <row r="355" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I355" s="110"/>
+    </row>
+    <row r="356" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I356" s="110"/>
+    </row>
+    <row r="357" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I357" s="110"/>
+    </row>
+    <row r="358" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I358" s="110"/>
+    </row>
+    <row r="359" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I359" s="110"/>
+    </row>
+    <row r="360" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I360" s="110"/>
+    </row>
+    <row r="361" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I361" s="110"/>
+    </row>
+    <row r="362" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I362" s="110"/>
+    </row>
+    <row r="363" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I363" s="110"/>
+    </row>
+    <row r="364" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I364" s="110"/>
+    </row>
+    <row r="365" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I365" s="110"/>
+    </row>
+    <row r="366" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I366" s="110"/>
+    </row>
+    <row r="367" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I367" s="110"/>
+    </row>
+    <row r="368" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I368" s="110"/>
+    </row>
+    <row r="369" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I369" s="110"/>
+    </row>
+    <row r="370" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I370" s="110"/>
+    </row>
+    <row r="371" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I371" s="110"/>
+    </row>
+    <row r="372" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I372" s="110"/>
+    </row>
+    <row r="373" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I373" s="110"/>
+    </row>
+    <row r="374" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I374" s="110"/>
+    </row>
+    <row r="375" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I375" s="110"/>
+    </row>
+    <row r="376" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I376" s="110"/>
+    </row>
+    <row r="377" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I377" s="110"/>
+    </row>
+    <row r="378" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I378" s="110"/>
+    </row>
+    <row r="379" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I379" s="110"/>
+    </row>
+    <row r="380" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I380" s="110"/>
+    </row>
+    <row r="381" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I381" s="110"/>
+    </row>
+    <row r="382" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I382" s="110"/>
+    </row>
+    <row r="383" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I383" s="110"/>
+    </row>
+    <row r="384" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I384" s="110"/>
+    </row>
+    <row r="385" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I385" s="110"/>
+    </row>
+    <row r="386" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I386" s="110"/>
+    </row>
+    <row r="387" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I387" s="110"/>
+    </row>
+    <row r="388" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I388" s="110"/>
+    </row>
+    <row r="389" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I389" s="110"/>
+    </row>
+    <row r="390" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I390" s="110"/>
+    </row>
+    <row r="391" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I391" s="110"/>
+    </row>
+    <row r="392" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I392" s="110"/>
+    </row>
+    <row r="393" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I393" s="110"/>
+    </row>
+    <row r="394" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I394" s="110"/>
+    </row>
+    <row r="395" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I395" s="110"/>
+    </row>
+    <row r="396" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I396" s="110"/>
+    </row>
+    <row r="397" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I397" s="110"/>
+    </row>
+    <row r="398" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I398" s="110"/>
+    </row>
+    <row r="399" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I399" s="110"/>
+    </row>
+    <row r="400" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I400" s="110"/>
+    </row>
+    <row r="401" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I401" s="110"/>
+    </row>
+    <row r="402" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I402" s="110"/>
+    </row>
+    <row r="403" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I403" s="110"/>
+    </row>
+    <row r="404" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I404" s="110"/>
+    </row>
+    <row r="405" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I405" s="110"/>
+    </row>
+    <row r="406" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I406" s="110"/>
+    </row>
+    <row r="407" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I407" s="110"/>
+    </row>
+    <row r="408" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I408" s="110"/>
+    </row>
+    <row r="409" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I409" s="110"/>
+    </row>
+    <row r="410" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I410" s="110"/>
+    </row>
+    <row r="411" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I411" s="110"/>
+    </row>
+    <row r="412" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I412" s="110"/>
+    </row>
+    <row r="413" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I413" s="110"/>
+    </row>
+    <row r="414" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I414" s="110"/>
+    </row>
+    <row r="415" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I415" s="110"/>
+    </row>
+    <row r="416" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I416" s="110"/>
+    </row>
+    <row r="417" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I417" s="110"/>
+    </row>
+    <row r="418" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I418" s="110"/>
+    </row>
+    <row r="419" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I419" s="110"/>
+    </row>
+    <row r="420" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I420" s="110"/>
+    </row>
+    <row r="421" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I421" s="110"/>
+    </row>
+    <row r="422" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I422" s="110"/>
+    </row>
+    <row r="423" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I423" s="110"/>
+    </row>
+    <row r="424" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I424" s="110"/>
+    </row>
+    <row r="425" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I425" s="110"/>
+    </row>
+    <row r="426" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I426" s="110"/>
+    </row>
+    <row r="427" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I427" s="110"/>
+    </row>
+    <row r="428" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I428" s="110"/>
+    </row>
+    <row r="429" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I429" s="110"/>
+    </row>
+    <row r="430" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I430" s="110"/>
+    </row>
+    <row r="431" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I431" s="110"/>
+    </row>
+    <row r="432" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I432" s="110"/>
+    </row>
+    <row r="433" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I433" s="110"/>
+    </row>
+    <row r="434" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I434" s="110"/>
+    </row>
+    <row r="435" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I435" s="110"/>
+    </row>
+    <row r="436" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I436" s="110"/>
+    </row>
+    <row r="437" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I437" s="110"/>
+    </row>
+    <row r="438" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I438" s="110"/>
+    </row>
+    <row r="439" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I439" s="110"/>
+    </row>
+    <row r="440" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I440" s="110"/>
+    </row>
+    <row r="441" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I441" s="110"/>
+    </row>
+    <row r="442" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I442" s="110"/>
+    </row>
+    <row r="443" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I443" s="110"/>
+    </row>
+    <row r="444" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I444" s="110"/>
+    </row>
+    <row r="445" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I445" s="110"/>
+    </row>
+    <row r="446" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I446" s="110"/>
+    </row>
+    <row r="447" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I447" s="110"/>
+    </row>
+    <row r="448" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I448" s="110"/>
+    </row>
+    <row r="449" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I449" s="110"/>
+    </row>
+    <row r="450" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I450" s="110"/>
+    </row>
+    <row r="451" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I451" s="110"/>
+    </row>
+    <row r="452" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I452" s="110"/>
+    </row>
+    <row r="453" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I453" s="110"/>
+    </row>
+    <row r="454" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I454" s="110"/>
+    </row>
+    <row r="455" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I455" s="110"/>
+    </row>
+    <row r="456" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I456" s="110"/>
+    </row>
+    <row r="457" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I457" s="110"/>
+    </row>
+    <row r="458" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I458" s="110"/>
+    </row>
+    <row r="459" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I459" s="110"/>
+    </row>
+    <row r="460" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I460" s="110"/>
+    </row>
+    <row r="461" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I461" s="110"/>
+    </row>
+    <row r="462" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I462" s="110"/>
+    </row>
+    <row r="463" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I463" s="110"/>
+    </row>
+    <row r="464" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I464" s="110"/>
+    </row>
+    <row r="465" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I465" s="110"/>
+    </row>
+    <row r="466" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I466" s="110"/>
+    </row>
+    <row r="467" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I467" s="110"/>
+    </row>
+    <row r="468" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I468" s="110"/>
+    </row>
+    <row r="469" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I469" s="110"/>
+    </row>
+    <row r="470" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I470" s="110"/>
+    </row>
+    <row r="471" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I471" s="110"/>
+    </row>
+    <row r="472" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I472" s="110"/>
+    </row>
+    <row r="473" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I473" s="110"/>
+    </row>
+    <row r="474" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I474" s="110"/>
+    </row>
+    <row r="475" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I475" s="110"/>
+    </row>
+    <row r="476" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I476" s="110"/>
+    </row>
+    <row r="477" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I477" s="110"/>
+    </row>
+    <row r="478" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I478" s="110"/>
+    </row>
+    <row r="479" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I479" s="110"/>
+    </row>
+    <row r="480" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I480" s="110"/>
+    </row>
+    <row r="481" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I481" s="110"/>
+    </row>
+    <row r="482" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I482" s="110"/>
+    </row>
+    <row r="483" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I483" s="110"/>
+    </row>
+    <row r="484" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I484" s="110"/>
+    </row>
+    <row r="485" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I485" s="110"/>
+    </row>
+    <row r="486" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I486" s="110"/>
+    </row>
+    <row r="487" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I487" s="110"/>
+    </row>
+    <row r="488" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I488" s="110"/>
+    </row>
+    <row r="489" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I489" s="110"/>
+    </row>
+    <row r="490" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I490" s="110"/>
+    </row>
+    <row r="491" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I491" s="110"/>
+    </row>
+    <row r="492" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I492" s="110"/>
+    </row>
+    <row r="493" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I493" s="110"/>
+    </row>
+    <row r="494" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I494" s="110"/>
+    </row>
+    <row r="495" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I495" s="110"/>
+    </row>
+    <row r="496" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I496" s="110"/>
+    </row>
+    <row r="497" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I497" s="110"/>
+    </row>
+    <row r="498" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I498" s="110"/>
+    </row>
+    <row r="499" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I499" s="110"/>
+    </row>
+    <row r="500" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I500" s="110"/>
+    </row>
+    <row r="501" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I501" s="110"/>
+    </row>
+    <row r="502" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I502" s="110"/>
+    </row>
+    <row r="503" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I503" s="110"/>
+    </row>
+    <row r="504" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I504" s="110"/>
+    </row>
+    <row r="505" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I505" s="110"/>
+    </row>
+    <row r="506" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I506" s="110"/>
+    </row>
+    <row r="507" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I507" s="110"/>
+    </row>
+    <row r="508" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I508" s="110"/>
+    </row>
+    <row r="509" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I509" s="110"/>
+    </row>
+    <row r="510" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I510" s="110"/>
+    </row>
+    <row r="511" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I511" s="110"/>
+    </row>
+    <row r="512" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I512" s="110"/>
+    </row>
+    <row r="513" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I513" s="110"/>
+    </row>
+    <row r="514" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I514" s="110"/>
+    </row>
+    <row r="515" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I515" s="110"/>
+    </row>
+    <row r="516" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I516" s="110"/>
+    </row>
+    <row r="517" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I517" s="110"/>
+    </row>
+    <row r="518" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I518" s="110"/>
+    </row>
+    <row r="519" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I519" s="110"/>
+    </row>
+    <row r="520" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I520" s="110"/>
+    </row>
+    <row r="521" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I521" s="110"/>
+    </row>
+    <row r="522" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I522" s="110"/>
+    </row>
+    <row r="523" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I523" s="110"/>
+    </row>
+    <row r="524" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I524" s="110"/>
+    </row>
+    <row r="525" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I525" s="110"/>
+    </row>
+    <row r="526" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I526" s="110"/>
+    </row>
+    <row r="527" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I527" s="110"/>
+    </row>
+    <row r="528" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I528" s="110"/>
+    </row>
+    <row r="529" spans="9:9" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="I529" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="4">
